--- a/data/Deal or No Deal Data.xlsx
+++ b/data/Deal or No Deal Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Season</t>
   </si>
@@ -61,7 +61,7 @@
     <t>136000 and one dozen doughnuts</t>
   </si>
   <si>
-    <t xml:space="preserve">new episode, also middle of a new contestant for some reason </t>
+    <t xml:space="preserve">New episode, middle of new contestant - don't know first two round. </t>
   </si>
   <si>
     <t>offered fancy escalade</t>
@@ -73,7 +73,7 @@
     <t>thanksgiving episode changed the $25 on the board to TURKEY for some reason</t>
   </si>
   <si>
-    <t>thanksgiving episode changed the $25 to PUMPKIN PIE for some reason</t>
+    <t>thanksgiving episode changed the $10 to PUMPKIN PIE for some reason</t>
   </si>
   <si>
     <t>there was an extra green case in play for this round and you could only open it if you didnt hit 1M in the first round, but she did so the case went away</t>
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -167,15 +167,17 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -16082,8 +16084,8 @@
       <c r="C367" s="3">
         <v>45.0</v>
       </c>
-      <c r="D367" s="4">
-        <v>100000.0</v>
+      <c r="D367" s="8">
+        <v>10000.0</v>
       </c>
       <c r="E367" s="4">
         <v>750000.0</v>
@@ -17363,7 +17365,7 @@
       <c r="H396" s="6"/>
       <c r="I396" s="6"/>
       <c r="J396" s="6"/>
-      <c r="K396" s="8">
+      <c r="K396" s="9">
         <v>193000.0</v>
       </c>
       <c r="L396" s="5"/>
@@ -20845,8 +20847,8 @@
       <c r="C477" s="3">
         <v>59.0</v>
       </c>
-      <c r="D477" s="4">
-        <v>5000.0</v>
+      <c r="D477" s="8">
+        <v>500.0</v>
       </c>
       <c r="E477" s="4">
         <v>112000.0</v>
@@ -21454,8 +21456,8 @@
       <c r="D491" s="4">
         <v>750.0</v>
       </c>
-      <c r="E491" s="4">
-        <v>1000.0</v>
+      <c r="E491" s="8">
+        <v>10000.0</v>
       </c>
       <c r="F491" s="4">
         <v>0.01</v>
@@ -21968,7 +21970,7 @@
       <c r="H503" s="6"/>
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
-      <c r="K503" s="8">
+      <c r="K503" s="9">
         <v>247000.0</v>
       </c>
       <c r="L503" s="5"/>
@@ -22876,8 +22878,8 @@
       <c r="C524" s="3">
         <v>65.0</v>
       </c>
-      <c r="D524" s="4">
-        <v>100.0</v>
+      <c r="D524" s="8">
+        <v>200.0</v>
       </c>
       <c r="E524" s="4">
         <v>50.0</v>
@@ -23090,8 +23092,8 @@
       <c r="H529" s="4">
         <v>100000.0</v>
       </c>
-      <c r="I529" s="4">
-        <v>50.0</v>
+      <c r="I529" s="8">
+        <v>25.0</v>
       </c>
       <c r="J529" s="4">
         <v>15000.0</v>
@@ -23590,34 +23592,38 @@
       <c r="AA540" s="6"/>
     </row>
     <row r="541">
-      <c r="A541" s="3">
+      <c r="A541" s="10">
         <v>2.0</v>
       </c>
-      <c r="B541" s="3">
+      <c r="B541" s="10">
         <v>24.0</v>
       </c>
-      <c r="C541" s="3">
+      <c r="C541" s="10">
         <v>68.0</v>
       </c>
-      <c r="D541" s="4">
-        <v>25000.0</v>
-      </c>
-      <c r="E541" s="4">
-        <v>400000.0</v>
-      </c>
-      <c r="F541" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="G541" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="H541" s="4">
-        <v>88000.0</v>
-      </c>
-      <c r="I541" s="6"/>
-      <c r="J541" s="6"/>
+      <c r="D541" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="E541" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="F541" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="G541" s="8">
+        <v>400.0</v>
+      </c>
+      <c r="H541" s="8">
+        <v>500.0</v>
+      </c>
+      <c r="I541" s="8">
+        <v>750.0</v>
+      </c>
+      <c r="J541" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="K541" s="5"/>
-      <c r="L541" s="7" t="s">
+      <c r="L541" s="9" t="s">
         <v>16</v>
       </c>
       <c r="M541" s="6"/>
@@ -23637,47 +23643,53 @@
       <c r="AA541" s="6"/>
     </row>
     <row r="542">
-      <c r="A542" s="3">
+      <c r="A542" s="10">
         <v>2.0</v>
       </c>
-      <c r="B542" s="3">
+      <c r="B542" s="10">
         <v>24.0</v>
       </c>
-      <c r="C542" s="3">
+      <c r="C542" s="10">
         <v>68.0</v>
       </c>
-      <c r="D542" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="E542" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="F542" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="G542" s="4">
-        <v>36000.0</v>
-      </c>
-      <c r="H542" s="6"/>
-      <c r="I542" s="6"/>
-      <c r="J542" s="6"/>
-      <c r="K542" s="5"/>
-      <c r="L542" s="5"/>
-      <c r="M542" s="6"/>
-      <c r="N542" s="6"/>
-      <c r="O542" s="6"/>
-      <c r="P542" s="6"/>
-      <c r="Q542" s="6"/>
-      <c r="R542" s="6"/>
-      <c r="S542" s="6"/>
-      <c r="T542" s="6"/>
-      <c r="U542" s="6"/>
-      <c r="V542" s="6"/>
-      <c r="W542" s="6"/>
-      <c r="X542" s="6"/>
-      <c r="Y542" s="6"/>
-      <c r="Z542" s="6"/>
-      <c r="AA542" s="6"/>
+      <c r="D542" s="8">
+        <v>1000.0</v>
+      </c>
+      <c r="E542" s="8">
+        <v>5000.0</v>
+      </c>
+      <c r="F542" s="8">
+        <v>75000.0</v>
+      </c>
+      <c r="G542" s="8">
+        <v>300000.0</v>
+      </c>
+      <c r="H542" s="8">
+        <v>1000000.0</v>
+      </c>
+      <c r="I542" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J542" s="11"/>
+      <c r="K542" s="12"/>
+      <c r="L542" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M542" s="11"/>
+      <c r="N542" s="11"/>
+      <c r="O542" s="11"/>
+      <c r="P542" s="11"/>
+      <c r="Q542" s="11"/>
+      <c r="R542" s="11"/>
+      <c r="S542" s="11"/>
+      <c r="T542" s="11"/>
+      <c r="U542" s="11"/>
+      <c r="V542" s="11"/>
+      <c r="W542" s="11"/>
+      <c r="X542" s="11"/>
+      <c r="Y542" s="11"/>
+      <c r="Z542" s="11"/>
+      <c r="AA542" s="11"/>
     </row>
     <row r="543">
       <c r="A543" s="3">
@@ -23690,21 +23702,25 @@
         <v>68.0</v>
       </c>
       <c r="D543" s="4">
-        <v>200000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E543" s="4">
-        <v>10.0</v>
+        <v>400000.0</v>
       </c>
       <c r="F543" s="4">
-        <v>83755.0</v>
-      </c>
-      <c r="G543" s="6"/>
-      <c r="H543" s="6"/>
+        <v>10000.0</v>
+      </c>
+      <c r="G543" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="H543" s="4">
+        <v>88000.0</v>
+      </c>
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
       <c r="K543" s="5"/>
-      <c r="L543" s="7" t="s">
-        <v>17</v>
+      <c r="L543" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="M543" s="6"/>
       <c r="N543" s="6"/>
@@ -23730,35 +23746,25 @@
         <v>24.0</v>
       </c>
       <c r="C544" s="3">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="D544" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="E544" s="4">
-        <v>1000000.0</v>
+        <v>75.0</v>
+      </c>
+      <c r="E544" s="8">
+        <v>100000.0</v>
       </c>
       <c r="F544" s="4">
-        <v>750.0</v>
+        <v>750000.0</v>
       </c>
       <c r="G544" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="H544" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="I544" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J544" s="4">
-        <v>12000.0</v>
-      </c>
-      <c r="K544" s="7">
-        <v>83755.0</v>
-      </c>
-      <c r="L544" s="7" t="s">
-        <v>18</v>
-      </c>
+        <v>36000.0</v>
+      </c>
+      <c r="H544" s="6"/>
+      <c r="I544" s="6"/>
+      <c r="J544" s="6"/>
+      <c r="K544" s="5"/>
+      <c r="L544" s="5"/>
       <c r="M544" s="6"/>
       <c r="N544" s="6"/>
       <c r="O544" s="6"/>
@@ -23783,29 +23789,25 @@
         <v>24.0</v>
       </c>
       <c r="C545" s="3">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="D545" s="4">
-        <v>50.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E545" s="4">
-        <v>400.0</v>
+        <v>10.0</v>
       </c>
       <c r="F545" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="G545" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="H545" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I545" s="4">
-        <v>66000.0</v>
-      </c>
+        <v>83755.0</v>
+      </c>
+      <c r="G545" s="6"/>
+      <c r="H545" s="6"/>
+      <c r="I545" s="6"/>
       <c r="J545" s="6"/>
       <c r="K545" s="5"/>
-      <c r="L545" s="5"/>
+      <c r="L545" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="M545" s="6"/>
       <c r="N545" s="6"/>
       <c r="O545" s="6"/>
@@ -23833,24 +23835,32 @@
         <v>69.0</v>
       </c>
       <c r="D546" s="4">
-        <v>500000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E546" s="4">
-        <v>100.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="F546" s="4">
-        <v>50000.0</v>
+        <v>750.0</v>
       </c>
       <c r="G546" s="4">
-        <v>200000.0</v>
+        <v>75.0</v>
       </c>
       <c r="H546" s="4">
-        <v>51000.0</v>
-      </c>
-      <c r="I546" s="6"/>
-      <c r="J546" s="6"/>
-      <c r="K546" s="5"/>
-      <c r="L546" s="5"/>
+        <v>300.0</v>
+      </c>
+      <c r="I546" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="J546" s="4">
+        <v>12000.0</v>
+      </c>
+      <c r="K546" s="7">
+        <v>83755.0</v>
+      </c>
+      <c r="L546" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="M546" s="6"/>
       <c r="N546" s="6"/>
       <c r="O546" s="6"/>
@@ -23878,19 +23888,23 @@
         <v>69.0</v>
       </c>
       <c r="D547" s="4">
-        <v>0.01</v>
+        <v>50.0</v>
       </c>
       <c r="E547" s="4">
-        <v>25.0</v>
+        <v>400.0</v>
       </c>
       <c r="F547" s="4">
-        <v>75000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="G547" s="4">
-        <v>94000.0</v>
-      </c>
-      <c r="H547" s="6"/>
-      <c r="I547" s="6"/>
+        <v>200.0</v>
+      </c>
+      <c r="H547" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I547" s="4">
+        <v>66000.0</v>
+      </c>
       <c r="J547" s="6"/>
       <c r="K547" s="5"/>
       <c r="L547" s="5"/>
@@ -23921,16 +23935,20 @@
         <v>69.0</v>
       </c>
       <c r="D548" s="4">
-        <v>100000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E548" s="4">
-        <v>5.0</v>
+        <v>100.0</v>
       </c>
       <c r="F548" s="4">
-        <v>137000.0</v>
-      </c>
-      <c r="G548" s="6"/>
-      <c r="H548" s="6"/>
+        <v>50000.0</v>
+      </c>
+      <c r="G548" s="4">
+        <v>200000.0</v>
+      </c>
+      <c r="H548" s="4">
+        <v>51000.0</v>
+      </c>
       <c r="I548" s="6"/>
       <c r="J548" s="6"/>
       <c r="K548" s="5"/>
@@ -23956,26 +23974,28 @@
         <v>2.0</v>
       </c>
       <c r="B549" s="3">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C549" s="3">
         <v>69.0</v>
       </c>
       <c r="D549" s="4">
-        <v>750000.0</v>
+        <v>0.01</v>
       </c>
       <c r="E549" s="4">
-        <v>85000.0</v>
-      </c>
-      <c r="F549" s="6"/>
-      <c r="G549" s="6"/>
+        <v>25.0</v>
+      </c>
+      <c r="F549" s="4">
+        <v>75000.0</v>
+      </c>
+      <c r="G549" s="4">
+        <v>94000.0</v>
+      </c>
       <c r="H549" s="6"/>
       <c r="I549" s="6"/>
       <c r="J549" s="6"/>
       <c r="K549" s="5"/>
-      <c r="L549" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="L549" s="5"/>
       <c r="M549" s="6"/>
       <c r="N549" s="6"/>
       <c r="O549" s="6"/>
@@ -23997,26 +24017,26 @@
         <v>2.0</v>
       </c>
       <c r="B550" s="3">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="C550" s="3">
         <v>69.0</v>
       </c>
       <c r="D550" s="4">
-        <v>400000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E550" s="4">
-        <v>59000.0</v>
-      </c>
-      <c r="F550" s="6"/>
+        <v>5.0</v>
+      </c>
+      <c r="F550" s="4">
+        <v>137000.0</v>
+      </c>
       <c r="G550" s="6"/>
       <c r="H550" s="6"/>
       <c r="I550" s="6"/>
       <c r="J550" s="6"/>
-      <c r="K550" s="7">
-        <v>59000.0</v>
-      </c>
-      <c r="L550" s="7"/>
+      <c r="K550" s="5"/>
+      <c r="L550" s="5"/>
       <c r="M550" s="6"/>
       <c r="N550" s="6"/>
       <c r="O550" s="6"/>
@@ -24044,10 +24064,10 @@
         <v>69.0</v>
       </c>
       <c r="D551" s="4">
-        <v>5000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="E551" s="4">
-        <v>94000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -24055,7 +24075,9 @@
       <c r="I551" s="6"/>
       <c r="J551" s="6"/>
       <c r="K551" s="5"/>
-      <c r="L551" s="5"/>
+      <c r="L551" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="M551" s="6"/>
       <c r="N551" s="6"/>
       <c r="O551" s="6"/>
@@ -24080,33 +24102,23 @@
         <v>25.0</v>
       </c>
       <c r="C552" s="3">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="D552" s="4">
-        <v>1000000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="E552" s="4">
-        <v>400000.0</v>
-      </c>
-      <c r="F552" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="G552" s="4">
-        <v>500000.0</v>
-      </c>
-      <c r="H552" s="4">
-        <v>200000.0</v>
-      </c>
-      <c r="I552" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="J552" s="4">
-        <v>4000.0</v>
-      </c>
-      <c r="K552" s="5"/>
-      <c r="L552" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>59000.0</v>
+      </c>
+      <c r="F552" s="6"/>
+      <c r="G552" s="6"/>
+      <c r="H552" s="6"/>
+      <c r="I552" s="6"/>
+      <c r="J552" s="6"/>
+      <c r="K552" s="7">
+        <v>59000.0</v>
+      </c>
+      <c r="L552" s="7"/>
       <c r="M552" s="6"/>
       <c r="N552" s="6"/>
       <c r="O552" s="6"/>
@@ -24131,26 +24143,18 @@
         <v>25.0</v>
       </c>
       <c r="C553" s="3">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="D553" s="4">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E553" s="4">
-        <v>750.0</v>
-      </c>
-      <c r="F553" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="G553" s="4">
-        <v>300000.0</v>
-      </c>
-      <c r="H553" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="I553" s="4">
-        <v>7000.0</v>
-      </c>
+        <v>94000.0</v>
+      </c>
+      <c r="F553" s="6"/>
+      <c r="G553" s="6"/>
+      <c r="H553" s="6"/>
+      <c r="I553" s="6"/>
       <c r="J553" s="6"/>
       <c r="K553" s="5"/>
       <c r="L553" s="5"/>
@@ -24181,24 +24185,30 @@
         <v>70.0</v>
       </c>
       <c r="D554" s="4">
-        <v>100.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E554" s="4">
-        <v>0.01</v>
+        <v>400000.0</v>
       </c>
       <c r="F554" s="4">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G554" s="4">
-        <v>5000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="H554" s="4">
-        <v>11000.0</v>
-      </c>
-      <c r="I554" s="6"/>
-      <c r="J554" s="6"/>
+        <v>200000.0</v>
+      </c>
+      <c r="I554" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="J554" s="4">
+        <v>4000.0</v>
+      </c>
       <c r="K554" s="5"/>
-      <c r="L554" s="5"/>
+      <c r="L554" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="M554" s="6"/>
       <c r="N554" s="6"/>
       <c r="O554" s="6"/>
@@ -24226,19 +24236,23 @@
         <v>70.0</v>
       </c>
       <c r="D555" s="4">
-        <v>75000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E555" s="4">
-        <v>200.0</v>
+        <v>750.0</v>
       </c>
       <c r="F555" s="4">
-        <v>50.0</v>
+        <v>300.0</v>
       </c>
       <c r="G555" s="4">
-        <v>17000.0</v>
-      </c>
-      <c r="H555" s="6"/>
-      <c r="I555" s="6"/>
+        <v>300000.0</v>
+      </c>
+      <c r="H555" s="4">
+        <v>750000.0</v>
+      </c>
+      <c r="I555" s="4">
+        <v>7000.0</v>
+      </c>
       <c r="J555" s="6"/>
       <c r="K555" s="5"/>
       <c r="L555" s="5"/>
@@ -24269,16 +24283,20 @@
         <v>70.0</v>
       </c>
       <c r="D556" s="4">
-        <v>50000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E556" s="4">
-        <v>5.0</v>
+        <v>0.01</v>
       </c>
       <c r="F556" s="4">
-        <v>22000.0</v>
-      </c>
-      <c r="G556" s="6"/>
-      <c r="H556" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="G556" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="H556" s="4">
+        <v>11000.0</v>
+      </c>
       <c r="I556" s="6"/>
       <c r="J556" s="6"/>
       <c r="K556" s="5"/>
@@ -24310,13 +24328,17 @@
         <v>70.0</v>
       </c>
       <c r="D557" s="4">
-        <v>500.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E557" s="4">
-        <v>26000.0</v>
-      </c>
-      <c r="F557" s="6"/>
-      <c r="G557" s="6"/>
+        <v>200.0</v>
+      </c>
+      <c r="F557" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="G557" s="4">
+        <v>17000.0</v>
+      </c>
       <c r="H557" s="6"/>
       <c r="I557" s="6"/>
       <c r="J557" s="6"/>
@@ -24349,18 +24371,20 @@
         <v>70.0</v>
       </c>
       <c r="D558" s="4">
-        <v>25.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E558" s="4">
-        <v>33000.0</v>
-      </c>
-      <c r="F558" s="6"/>
+        <v>5.0</v>
+      </c>
+      <c r="F558" s="4">
+        <v>22000.0</v>
+      </c>
       <c r="G558" s="6"/>
       <c r="H558" s="6"/>
       <c r="I558" s="6"/>
       <c r="J558" s="6"/>
       <c r="K558" s="5"/>
-      <c r="L558" s="7"/>
+      <c r="L558" s="5"/>
       <c r="M558" s="6"/>
       <c r="N558" s="6"/>
       <c r="O558" s="6"/>
@@ -24388,10 +24412,10 @@
         <v>70.0</v>
       </c>
       <c r="D559" s="4">
-        <v>10000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E559" s="4">
-        <v>41000.0</v>
+        <v>26000.0</v>
       </c>
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
@@ -24427,20 +24451,18 @@
         <v>70.0</v>
       </c>
       <c r="D560" s="4">
-        <v>25000.0</v>
+        <v>25.0</v>
       </c>
       <c r="E560" s="4">
-        <v>50000.0</v>
+        <v>33000.0</v>
       </c>
       <c r="F560" s="6"/>
       <c r="G560" s="6"/>
       <c r="H560" s="6"/>
       <c r="I560" s="6"/>
       <c r="J560" s="6"/>
-      <c r="K560" s="7">
-        <v>33000.0</v>
-      </c>
-      <c r="L560" s="5"/>
+      <c r="K560" s="5"/>
+      <c r="L560" s="7"/>
       <c r="M560" s="6"/>
       <c r="N560" s="6"/>
       <c r="O560" s="6"/>
@@ -24465,29 +24487,19 @@
         <v>25.0</v>
       </c>
       <c r="C561" s="3">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="D561" s="4">
-        <v>300000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E561" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F561" s="4">
-        <v>1000000.0</v>
-      </c>
-      <c r="G561" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="H561" s="4">
-        <v>500000.0</v>
-      </c>
-      <c r="I561" s="4">
-        <v>100000.0</v>
-      </c>
-      <c r="J561" s="4">
-        <v>5000.0</v>
-      </c>
+        <v>41000.0</v>
+      </c>
+      <c r="F561" s="6"/>
+      <c r="G561" s="6"/>
+      <c r="H561" s="6"/>
+      <c r="I561" s="6"/>
+      <c r="J561" s="6"/>
       <c r="K561" s="5"/>
       <c r="L561" s="5"/>
       <c r="M561" s="6"/>
@@ -24514,31 +24526,23 @@
         <v>25.0</v>
       </c>
       <c r="C562" s="3">
-        <v>71.0</v>
+        <v>70.0</v>
       </c>
       <c r="D562" s="4">
-        <v>400000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E562" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="F562" s="4">
-        <v>750.0</v>
-      </c>
-      <c r="G562" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="H562" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="I562" s="4">
-        <v>9000.0</v>
-      </c>
+        <v>50000.0</v>
+      </c>
+      <c r="F562" s="6"/>
+      <c r="G562" s="6"/>
+      <c r="H562" s="6"/>
+      <c r="I562" s="6"/>
       <c r="J562" s="6"/>
-      <c r="K562" s="5"/>
-      <c r="L562" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="K562" s="7">
+        <v>33000.0</v>
+      </c>
+      <c r="L562" s="5"/>
       <c r="M562" s="6"/>
       <c r="N562" s="6"/>
       <c r="O562" s="6"/>
@@ -24566,22 +24570,26 @@
         <v>71.0</v>
       </c>
       <c r="D563" s="4">
-        <v>5.0</v>
+        <v>300000.0</v>
       </c>
       <c r="E563" s="4">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="F563" s="4">
-        <v>1000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="G563" s="4">
-        <v>25.0</v>
+        <v>750000.0</v>
       </c>
       <c r="H563" s="4">
-        <v>15000.0</v>
-      </c>
-      <c r="I563" s="6"/>
-      <c r="J563" s="6"/>
+        <v>500000.0</v>
+      </c>
+      <c r="I563" s="4">
+        <v>100000.0</v>
+      </c>
+      <c r="J563" s="4">
+        <v>5000.0</v>
+      </c>
       <c r="K563" s="5"/>
       <c r="L563" s="5"/>
       <c r="M563" s="6"/>
@@ -24611,22 +24619,28 @@
         <v>71.0</v>
       </c>
       <c r="D564" s="4">
-        <v>5000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="E564" s="4">
-        <v>400.0</v>
+        <v>75.0</v>
       </c>
       <c r="F564" s="4">
-        <v>0.01</v>
+        <v>750.0</v>
       </c>
       <c r="G564" s="4">
-        <v>24000.0</v>
-      </c>
-      <c r="H564" s="6"/>
-      <c r="I564" s="6"/>
+        <v>10000.0</v>
+      </c>
+      <c r="H564" s="8">
+        <v>75000.0</v>
+      </c>
+      <c r="I564" s="4">
+        <v>9000.0</v>
+      </c>
       <c r="J564" s="6"/>
       <c r="K564" s="5"/>
-      <c r="L564" s="5"/>
+      <c r="L564" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M564" s="6"/>
       <c r="N564" s="6"/>
       <c r="O564" s="6"/>
@@ -24654,16 +24668,20 @@
         <v>71.0</v>
       </c>
       <c r="D565" s="4">
-        <v>25000.0</v>
+        <v>5.0</v>
       </c>
       <c r="E565" s="4">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="F565" s="4">
-        <v>37000.0</v>
-      </c>
-      <c r="G565" s="6"/>
-      <c r="H565" s="6"/>
+        <v>1000.0</v>
+      </c>
+      <c r="G565" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="H565" s="4">
+        <v>15000.0</v>
+      </c>
       <c r="I565" s="6"/>
       <c r="J565" s="6"/>
       <c r="K565" s="5"/>
@@ -24695,17 +24713,21 @@
         <v>71.0</v>
       </c>
       <c r="D566" s="4">
-        <v>50.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E566" s="4">
-        <v>46000.0</v>
-      </c>
-      <c r="F566" s="6"/>
-      <c r="G566" s="6"/>
+        <v>400.0</v>
+      </c>
+      <c r="F566" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G566" s="4">
+        <v>24000.0</v>
+      </c>
       <c r="H566" s="6"/>
       <c r="I566" s="6"/>
       <c r="J566" s="6"/>
-      <c r="K566" s="7"/>
+      <c r="K566" s="5"/>
       <c r="L566" s="5"/>
       <c r="M566" s="6"/>
       <c r="N566" s="6"/>
@@ -24734,12 +24756,14 @@
         <v>71.0</v>
       </c>
       <c r="D567" s="4">
-        <v>300.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E567" s="4">
-        <v>61000.0</v>
-      </c>
-      <c r="F567" s="6"/>
+        <v>25.0</v>
+      </c>
+      <c r="F567" s="4">
+        <v>37000.0</v>
+      </c>
       <c r="G567" s="6"/>
       <c r="H567" s="6"/>
       <c r="I567" s="6"/>
@@ -24773,22 +24797,18 @@
         <v>71.0</v>
       </c>
       <c r="D568" s="4">
-        <v>50000.0</v>
+        <v>50.0</v>
       </c>
       <c r="E568" s="4">
-        <v>72000.0</v>
+        <v>46000.0</v>
       </c>
       <c r="F568" s="6"/>
       <c r="G568" s="6"/>
       <c r="H568" s="6"/>
       <c r="I568" s="6"/>
       <c r="J568" s="6"/>
-      <c r="K568" s="7">
-        <v>46000.0</v>
-      </c>
-      <c r="L568" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="K568" s="7"/>
+      <c r="L568" s="5"/>
       <c r="M568" s="6"/>
       <c r="N568" s="6"/>
       <c r="O568" s="6"/>
@@ -24810,32 +24830,22 @@
         <v>2.0</v>
       </c>
       <c r="B569" s="3">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C569" s="3">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="D569" s="4">
-        <v>750000.0</v>
+        <v>300.0</v>
       </c>
       <c r="E569" s="4">
-        <v>400000.0</v>
-      </c>
-      <c r="F569" s="4">
-        <v>750.0</v>
-      </c>
-      <c r="G569" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="H569" s="4">
-        <v>1000000.0</v>
-      </c>
-      <c r="I569" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="J569" s="4">
-        <v>8000.0</v>
-      </c>
+        <v>61000.0</v>
+      </c>
+      <c r="F569" s="6"/>
+      <c r="G569" s="6"/>
+      <c r="H569" s="6"/>
+      <c r="I569" s="6"/>
+      <c r="J569" s="6"/>
       <c r="K569" s="5"/>
       <c r="L569" s="5"/>
       <c r="M569" s="6"/>
@@ -24859,32 +24869,28 @@
         <v>2.0</v>
       </c>
       <c r="B570" s="3">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="C570" s="3">
-        <v>72.0</v>
+        <v>71.0</v>
       </c>
       <c r="D570" s="4">
-        <v>25000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E570" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="F570" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="G570" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H570" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="I570" s="4">
-        <v>19000.0</v>
-      </c>
+        <v>72000.0</v>
+      </c>
+      <c r="F570" s="6"/>
+      <c r="G570" s="6"/>
+      <c r="H570" s="6"/>
+      <c r="I570" s="6"/>
       <c r="J570" s="6"/>
-      <c r="K570" s="5"/>
-      <c r="L570" s="5"/>
+      <c r="K570" s="7">
+        <v>46000.0</v>
+      </c>
+      <c r="L570" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="M570" s="6"/>
       <c r="N570" s="6"/>
       <c r="O570" s="6"/>
@@ -24912,22 +24918,26 @@
         <v>72.0</v>
       </c>
       <c r="D571" s="4">
-        <v>300000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="E571" s="4">
-        <v>100000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="F571" s="4">
-        <v>5000.0</v>
+        <v>750.0</v>
       </c>
       <c r="G571" s="4">
-        <v>200000.0</v>
+        <v>25.0</v>
       </c>
       <c r="H571" s="4">
-        <v>14000.0</v>
-      </c>
-      <c r="I571" s="6"/>
-      <c r="J571" s="6"/>
+        <v>1000000.0</v>
+      </c>
+      <c r="I571" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="J571" s="4">
+        <v>8000.0</v>
+      </c>
       <c r="K571" s="5"/>
       <c r="L571" s="5"/>
       <c r="M571" s="6"/>
@@ -24957,19 +24967,23 @@
         <v>72.0</v>
       </c>
       <c r="D572" s="4">
-        <v>75000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E572" s="4">
-        <v>10.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F572" s="4">
-        <v>300.0</v>
+        <v>100.0</v>
       </c>
       <c r="G572" s="4">
-        <v>40000.0</v>
-      </c>
-      <c r="H572" s="6"/>
-      <c r="I572" s="6"/>
+        <v>1.0</v>
+      </c>
+      <c r="H572" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="I572" s="4">
+        <v>19000.0</v>
+      </c>
       <c r="J572" s="6"/>
       <c r="K572" s="5"/>
       <c r="L572" s="5"/>
@@ -25000,16 +25014,20 @@
         <v>72.0</v>
       </c>
       <c r="D573" s="4">
-        <v>75.0</v>
+        <v>300000.0</v>
       </c>
       <c r="E573" s="4">
-        <v>500000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="F573" s="4">
-        <v>9000.0</v>
-      </c>
-      <c r="G573" s="6"/>
-      <c r="H573" s="6"/>
+        <v>5000.0</v>
+      </c>
+      <c r="G573" s="4">
+        <v>200000.0</v>
+      </c>
+      <c r="H573" s="4">
+        <v>14000.0</v>
+      </c>
       <c r="I573" s="6"/>
       <c r="J573" s="6"/>
       <c r="K573" s="5"/>
@@ -25041,13 +25059,17 @@
         <v>72.0</v>
       </c>
       <c r="D574" s="4">
-        <v>0.01</v>
+        <v>75000.0</v>
       </c>
       <c r="E574" s="4">
-        <v>11000.0</v>
-      </c>
-      <c r="F574" s="6"/>
-      <c r="G574" s="6"/>
+        <v>10.0</v>
+      </c>
+      <c r="F574" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="G574" s="4">
+        <v>40000.0</v>
+      </c>
       <c r="H574" s="6"/>
       <c r="I574" s="6"/>
       <c r="J574" s="6"/>
@@ -25080,12 +25102,14 @@
         <v>72.0</v>
       </c>
       <c r="D575" s="4">
-        <v>50000.0</v>
+        <v>75.0</v>
       </c>
       <c r="E575" s="4">
-        <v>2500.0</v>
-      </c>
-      <c r="F575" s="6"/>
+        <v>500000.0</v>
+      </c>
+      <c r="F575" s="4">
+        <v>9000.0</v>
+      </c>
       <c r="G575" s="6"/>
       <c r="H575" s="6"/>
       <c r="I575" s="6"/>
@@ -25119,10 +25143,10 @@
         <v>72.0</v>
       </c>
       <c r="D576" s="4">
-        <v>10000.0</v>
+        <v>0.01</v>
       </c>
       <c r="E576" s="4">
-        <v>200.0</v>
+        <v>11000.0</v>
       </c>
       <c r="F576" s="6"/>
       <c r="G576" s="6"/>
@@ -25158,19 +25182,17 @@
         <v>72.0</v>
       </c>
       <c r="D577" s="4">
-        <v>400.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E577" s="4">
-        <v>100.0</v>
+        <v>2500.0</v>
       </c>
       <c r="F577" s="6"/>
       <c r="G577" s="6"/>
       <c r="H577" s="6"/>
       <c r="I577" s="6"/>
       <c r="J577" s="6"/>
-      <c r="K577" s="7">
-        <v>200.0</v>
-      </c>
+      <c r="K577" s="5"/>
       <c r="L577" s="5"/>
       <c r="M577" s="6"/>
       <c r="N577" s="6"/>
@@ -25196,29 +25218,19 @@
         <v>26.0</v>
       </c>
       <c r="C578" s="3">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="D578" s="4">
-        <v>500000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E578" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F578" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G578" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="H578" s="4">
-        <v>1000000.0</v>
-      </c>
-      <c r="I578" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="J578" s="4">
-        <v>13000.0</v>
-      </c>
+        <v>200.0</v>
+      </c>
+      <c r="F578" s="6"/>
+      <c r="G578" s="6"/>
+      <c r="H578" s="6"/>
+      <c r="I578" s="6"/>
+      <c r="J578" s="6"/>
       <c r="K578" s="5"/>
       <c r="L578" s="5"/>
       <c r="M578" s="6"/>
@@ -25245,28 +25257,22 @@
         <v>26.0</v>
       </c>
       <c r="C579" s="3">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="D579" s="4">
-        <v>75.0</v>
+        <v>400.0</v>
       </c>
       <c r="E579" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="F579" s="4">
-        <v>100000.0</v>
-      </c>
-      <c r="G579" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="H579" s="4">
-        <v>75000.0</v>
-      </c>
-      <c r="I579" s="4">
-        <v>34000.0</v>
-      </c>
+        <v>100.0</v>
+      </c>
+      <c r="F579" s="6"/>
+      <c r="G579" s="6"/>
+      <c r="H579" s="6"/>
+      <c r="I579" s="6"/>
       <c r="J579" s="6"/>
-      <c r="K579" s="5"/>
+      <c r="K579" s="7">
+        <v>200.0</v>
+      </c>
       <c r="L579" s="5"/>
       <c r="M579" s="6"/>
       <c r="N579" s="6"/>
@@ -25295,22 +25301,26 @@
         <v>73.0</v>
       </c>
       <c r="D580" s="4">
-        <v>300.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E580" s="4">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="F580" s="4">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="G580" s="4">
-        <v>5.0</v>
+        <v>400.0</v>
       </c>
       <c r="H580" s="4">
-        <v>58000.0</v>
-      </c>
-      <c r="I580" s="6"/>
-      <c r="J580" s="6"/>
+        <v>1000000.0</v>
+      </c>
+      <c r="I580" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="J580" s="4">
+        <v>13000.0</v>
+      </c>
       <c r="K580" s="5"/>
       <c r="L580" s="5"/>
       <c r="M580" s="6"/>
@@ -25340,19 +25350,23 @@
         <v>73.0</v>
       </c>
       <c r="D581" s="4">
-        <v>200000.0</v>
+        <v>75.0</v>
       </c>
       <c r="E581" s="4">
-        <v>300000.0</v>
+        <v>0.01</v>
       </c>
       <c r="F581" s="4">
-        <v>400000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="G581" s="4">
-        <v>41000.0</v>
-      </c>
-      <c r="H581" s="6"/>
-      <c r="I581" s="6"/>
+        <v>1000.0</v>
+      </c>
+      <c r="H581" s="4">
+        <v>75000.0</v>
+      </c>
+      <c r="I581" s="4">
+        <v>34000.0</v>
+      </c>
       <c r="J581" s="6"/>
       <c r="K581" s="5"/>
       <c r="L581" s="5"/>
@@ -25377,28 +25391,30 @@
         <v>2.0</v>
       </c>
       <c r="B582" s="3">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C582" s="3">
         <v>73.0</v>
       </c>
       <c r="D582" s="4">
-        <v>25000.0</v>
+        <v>300.0</v>
       </c>
       <c r="E582" s="4">
-        <v>5000.0</v>
+        <v>200.0</v>
       </c>
       <c r="F582" s="4">
-        <v>86000.0</v>
-      </c>
-      <c r="G582" s="6"/>
-      <c r="H582" s="6"/>
+        <v>10000.0</v>
+      </c>
+      <c r="G582" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H582" s="4">
+        <v>58000.0</v>
+      </c>
       <c r="I582" s="6"/>
       <c r="J582" s="6"/>
       <c r="K582" s="5"/>
-      <c r="L582" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="L582" s="5"/>
       <c r="M582" s="6"/>
       <c r="N582" s="6"/>
       <c r="O582" s="6"/>
@@ -25420,19 +25436,23 @@
         <v>2.0</v>
       </c>
       <c r="B583" s="3">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C583" s="3">
         <v>73.0</v>
       </c>
       <c r="D583" s="4">
-        <v>10.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E583" s="4">
-        <v>106000.0</v>
-      </c>
-      <c r="F583" s="6"/>
-      <c r="G583" s="6"/>
+        <v>300000.0</v>
+      </c>
+      <c r="F583" s="4">
+        <v>400000.0</v>
+      </c>
+      <c r="G583" s="4">
+        <v>41000.0</v>
+      </c>
       <c r="H583" s="6"/>
       <c r="I583" s="6"/>
       <c r="J583" s="6"/>
@@ -25465,18 +25485,22 @@
         <v>73.0</v>
       </c>
       <c r="D584" s="4">
-        <v>25.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E584" s="4">
-        <v>170000.0</v>
-      </c>
-      <c r="F584" s="6"/>
+        <v>5000.0</v>
+      </c>
+      <c r="F584" s="4">
+        <v>86000.0</v>
+      </c>
       <c r="G584" s="6"/>
       <c r="H584" s="6"/>
       <c r="I584" s="6"/>
       <c r="J584" s="6"/>
       <c r="K584" s="5"/>
-      <c r="L584" s="5"/>
+      <c r="L584" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M584" s="6"/>
       <c r="N584" s="6"/>
       <c r="O584" s="6"/>
@@ -25504,10 +25528,10 @@
         <v>73.0</v>
       </c>
       <c r="D585" s="4">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="E585" s="4">
-        <v>249000.0</v>
+        <v>106000.0</v>
       </c>
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
@@ -25543,19 +25567,17 @@
         <v>73.0</v>
       </c>
       <c r="D586" s="4">
-        <v>750.0</v>
+        <v>25.0</v>
       </c>
       <c r="E586" s="4">
-        <v>413000.0</v>
+        <v>170000.0</v>
       </c>
       <c r="F586" s="6"/>
       <c r="G586" s="6"/>
       <c r="H586" s="6"/>
       <c r="I586" s="6"/>
       <c r="J586" s="6"/>
-      <c r="K586" s="7">
-        <v>170000.0</v>
-      </c>
+      <c r="K586" s="5"/>
       <c r="L586" s="5"/>
       <c r="M586" s="6"/>
       <c r="N586" s="6"/>
@@ -25581,29 +25603,19 @@
         <v>27.0</v>
       </c>
       <c r="C587" s="3">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="D587" s="4">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="E587" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="F587" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G587" s="4">
-        <v>750.0</v>
-      </c>
-      <c r="H587" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="I587" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="J587" s="4">
-        <v>33000.0</v>
-      </c>
+        <v>249000.0</v>
+      </c>
+      <c r="F587" s="6"/>
+      <c r="G587" s="6"/>
+      <c r="H587" s="6"/>
+      <c r="I587" s="6"/>
+      <c r="J587" s="6"/>
       <c r="K587" s="5"/>
       <c r="L587" s="5"/>
       <c r="M587" s="6"/>
@@ -25630,28 +25642,22 @@
         <v>27.0</v>
       </c>
       <c r="C588" s="3">
-        <v>74.0</v>
+        <v>73.0</v>
       </c>
       <c r="D588" s="4">
-        <v>100000.0</v>
+        <v>750.0</v>
       </c>
       <c r="E588" s="4">
-        <v>200000.0</v>
-      </c>
-      <c r="F588" s="4">
-        <v>500000.0</v>
-      </c>
-      <c r="G588" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H588" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="I588" s="4">
-        <v>26000.0</v>
-      </c>
+        <v>413000.0</v>
+      </c>
+      <c r="F588" s="6"/>
+      <c r="G588" s="6"/>
+      <c r="H588" s="6"/>
+      <c r="I588" s="6"/>
       <c r="J588" s="6"/>
-      <c r="K588" s="5"/>
+      <c r="K588" s="7">
+        <v>170000.0</v>
+      </c>
       <c r="L588" s="5"/>
       <c r="M588" s="6"/>
       <c r="N588" s="6"/>
@@ -25680,22 +25686,26 @@
         <v>74.0</v>
       </c>
       <c r="D589" s="4">
-        <v>10000.0</v>
+        <v>25.0</v>
       </c>
       <c r="E589" s="4">
-        <v>750000.0</v>
+        <v>75.0</v>
       </c>
       <c r="F589" s="4">
-        <v>5000.0</v>
+        <v>5.0</v>
       </c>
       <c r="G589" s="4">
-        <v>100.0</v>
+        <v>750.0</v>
       </c>
       <c r="H589" s="4">
-        <v>44000.0</v>
-      </c>
-      <c r="I589" s="6"/>
-      <c r="J589" s="6"/>
+        <v>1000.0</v>
+      </c>
+      <c r="I589" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="J589" s="4">
+        <v>33000.0</v>
+      </c>
       <c r="K589" s="5"/>
       <c r="L589" s="5"/>
       <c r="M589" s="6"/>
@@ -25725,19 +25735,23 @@
         <v>74.0</v>
       </c>
       <c r="D590" s="4">
-        <v>1000000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E590" s="4">
-        <v>400000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="F590" s="4">
-        <v>75000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="G590" s="4">
-        <v>22000.0</v>
-      </c>
-      <c r="H590" s="6"/>
-      <c r="I590" s="6"/>
+        <v>10.0</v>
+      </c>
+      <c r="H590" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="I590" s="4">
+        <v>26000.0</v>
+      </c>
       <c r="J590" s="6"/>
       <c r="K590" s="5"/>
       <c r="L590" s="5"/>
@@ -25768,16 +25782,20 @@
         <v>74.0</v>
       </c>
       <c r="D591" s="4">
-        <v>0.01</v>
+        <v>10000.0</v>
       </c>
       <c r="E591" s="4">
-        <v>500.0</v>
+        <v>750000.0</v>
       </c>
       <c r="F591" s="4">
-        <v>51000.0</v>
-      </c>
-      <c r="G591" s="6"/>
-      <c r="H591" s="6"/>
+        <v>5000.0</v>
+      </c>
+      <c r="G591" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="H591" s="4">
+        <v>44000.0</v>
+      </c>
       <c r="I591" s="6"/>
       <c r="J591" s="6"/>
       <c r="K591" s="5"/>
@@ -25809,13 +25827,17 @@
         <v>74.0</v>
       </c>
       <c r="D592" s="4">
-        <v>50000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E592" s="4">
-        <v>59000.0</v>
-      </c>
-      <c r="F592" s="6"/>
-      <c r="G592" s="6"/>
+        <v>400000.0</v>
+      </c>
+      <c r="F592" s="4">
+        <v>75000.0</v>
+      </c>
+      <c r="G592" s="4">
+        <v>22000.0</v>
+      </c>
       <c r="H592" s="6"/>
       <c r="I592" s="6"/>
       <c r="J592" s="6"/>
@@ -25848,19 +25870,19 @@
         <v>74.0</v>
       </c>
       <c r="D593" s="4">
-        <v>25000.0</v>
+        <v>0.01</v>
       </c>
       <c r="E593" s="4">
-        <v>79000.0</v>
-      </c>
-      <c r="F593" s="6"/>
+        <v>500.0</v>
+      </c>
+      <c r="F593" s="4">
+        <v>51000.0</v>
+      </c>
       <c r="G593" s="6"/>
       <c r="H593" s="6"/>
       <c r="I593" s="6"/>
       <c r="J593" s="6"/>
-      <c r="K593" s="7">
-        <v>59000.0</v>
-      </c>
+      <c r="K593" s="5"/>
       <c r="L593" s="5"/>
       <c r="M593" s="6"/>
       <c r="N593" s="6"/>
@@ -25883,32 +25905,22 @@
         <v>2.0</v>
       </c>
       <c r="B594" s="3">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C594" s="3">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="D594" s="4">
-        <v>750000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E594" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="F594" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="G594" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="H594" s="4">
-        <v>300000.0</v>
-      </c>
-      <c r="I594" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="J594" s="4">
-        <v>17000.0</v>
-      </c>
+        <v>59000.0</v>
+      </c>
+      <c r="F594" s="6"/>
+      <c r="G594" s="6"/>
+      <c r="H594" s="6"/>
+      <c r="I594" s="6"/>
+      <c r="J594" s="6"/>
       <c r="K594" s="5"/>
       <c r="L594" s="5"/>
       <c r="M594" s="6"/>
@@ -25932,31 +25944,25 @@
         <v>2.0</v>
       </c>
       <c r="B595" s="3">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="C595" s="3">
-        <v>75.0</v>
+        <v>74.0</v>
       </c>
       <c r="D595" s="4">
-        <v>750.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E595" s="4">
-        <v>500000.0</v>
-      </c>
-      <c r="F595" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="G595" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H595" s="4">
-        <v>1000000.0</v>
-      </c>
-      <c r="I595" s="4">
-        <v>10000.0</v>
-      </c>
+        <v>79000.0</v>
+      </c>
+      <c r="F595" s="6"/>
+      <c r="G595" s="6"/>
+      <c r="H595" s="6"/>
+      <c r="I595" s="6"/>
       <c r="J595" s="6"/>
-      <c r="K595" s="5"/>
+      <c r="K595" s="7">
+        <v>59000.0</v>
+      </c>
       <c r="L595" s="5"/>
       <c r="M595" s="6"/>
       <c r="N595" s="6"/>
@@ -25985,22 +25991,26 @@
         <v>75.0</v>
       </c>
       <c r="D596" s="4">
+        <v>750000.0</v>
+      </c>
+      <c r="E596" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="F596" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="G596" s="4">
         <v>50000.0</v>
       </c>
-      <c r="E596" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="F596" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="G596" s="4">
-        <v>75000.0</v>
-      </c>
       <c r="H596" s="4">
-        <v>29000.0</v>
-      </c>
-      <c r="I596" s="6"/>
-      <c r="J596" s="6"/>
+        <v>300000.0</v>
+      </c>
+      <c r="I596" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="J596" s="4">
+        <v>17000.0</v>
+      </c>
       <c r="K596" s="5"/>
       <c r="L596" s="5"/>
       <c r="M596" s="6"/>
@@ -26030,19 +26040,23 @@
         <v>75.0</v>
       </c>
       <c r="D597" s="4">
-        <v>1000.0</v>
+        <v>750.0</v>
       </c>
       <c r="E597" s="4">
-        <v>200000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="F597" s="4">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="G597" s="4">
-        <v>34000.0</v>
-      </c>
-      <c r="H597" s="6"/>
-      <c r="I597" s="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="H597" s="4">
+        <v>1000000.0</v>
+      </c>
+      <c r="I597" s="4">
+        <v>10000.0</v>
+      </c>
       <c r="J597" s="6"/>
       <c r="K597" s="5"/>
       <c r="L597" s="5"/>
@@ -26072,17 +26086,21 @@
       <c r="C598" s="3">
         <v>75.0</v>
       </c>
-      <c r="D598" s="4">
-        <v>400.0</v>
+      <c r="D598" s="8">
+        <v>5000.0</v>
       </c>
       <c r="E598" s="4">
-        <v>100.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F598" s="4">
-        <v>48000.0</v>
-      </c>
-      <c r="G598" s="6"/>
-      <c r="H598" s="6"/>
+        <v>300.0</v>
+      </c>
+      <c r="G598" s="4">
+        <v>75000.0</v>
+      </c>
+      <c r="H598" s="4">
+        <v>29000.0</v>
+      </c>
       <c r="I598" s="6"/>
       <c r="J598" s="6"/>
       <c r="K598" s="5"/>
@@ -26114,13 +26132,17 @@
         <v>75.0</v>
       </c>
       <c r="D599" s="4">
-        <v>10.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E599" s="4">
-        <v>72000.0</v>
-      </c>
-      <c r="F599" s="6"/>
-      <c r="G599" s="6"/>
+        <v>200000.0</v>
+      </c>
+      <c r="F599" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G599" s="4">
+        <v>34000.0</v>
+      </c>
       <c r="H599" s="6"/>
       <c r="I599" s="6"/>
       <c r="J599" s="6"/>
@@ -26153,12 +26175,14 @@
         <v>75.0</v>
       </c>
       <c r="D600" s="4">
-        <v>100000.0</v>
+        <v>400.0</v>
       </c>
       <c r="E600" s="4">
-        <v>61000.0</v>
-      </c>
-      <c r="F600" s="6"/>
+        <v>100.0</v>
+      </c>
+      <c r="F600" s="4">
+        <v>48000.0</v>
+      </c>
       <c r="G600" s="6"/>
       <c r="H600" s="6"/>
       <c r="I600" s="6"/>
@@ -26192,10 +26216,10 @@
         <v>75.0</v>
       </c>
       <c r="D601" s="4">
-        <v>75.0</v>
+        <v>10.0</v>
       </c>
       <c r="E601" s="4">
-        <v>124000.0</v>
+        <v>72000.0</v>
       </c>
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
@@ -26231,19 +26255,17 @@
         <v>75.0</v>
       </c>
       <c r="D602" s="4">
-        <v>25000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E602" s="4">
-        <v>200000.0</v>
+        <v>61000.0</v>
       </c>
       <c r="F602" s="6"/>
       <c r="G602" s="6"/>
       <c r="H602" s="6"/>
       <c r="I602" s="6"/>
       <c r="J602" s="6"/>
-      <c r="K602" s="7">
-        <v>61000.0</v>
-      </c>
+      <c r="K602" s="5"/>
       <c r="L602" s="5"/>
       <c r="M602" s="6"/>
       <c r="N602" s="6"/>
@@ -26269,29 +26291,19 @@
         <v>28.0</v>
       </c>
       <c r="C603" s="3">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="D603" s="4">
-        <v>500.0</v>
+        <v>75.0</v>
       </c>
       <c r="E603" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F603" s="4">
-        <v>400000.0</v>
-      </c>
-      <c r="G603" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="H603" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="I603" s="4">
-        <v>1000000.0</v>
-      </c>
-      <c r="J603" s="4">
-        <v>21000.0</v>
-      </c>
+        <v>124000.0</v>
+      </c>
+      <c r="F603" s="6"/>
+      <c r="G603" s="6"/>
+      <c r="H603" s="6"/>
+      <c r="I603" s="6"/>
+      <c r="J603" s="6"/>
       <c r="K603" s="5"/>
       <c r="L603" s="5"/>
       <c r="M603" s="6"/>
@@ -26318,28 +26330,22 @@
         <v>28.0</v>
       </c>
       <c r="C604" s="3">
-        <v>76.0</v>
+        <v>75.0</v>
       </c>
       <c r="D604" s="4">
-        <v>300000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E604" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="F604" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="G604" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="H604" s="4">
         <v>200000.0</v>
       </c>
-      <c r="I604" s="4">
-        <v>17000.0</v>
-      </c>
+      <c r="F604" s="6"/>
+      <c r="G604" s="6"/>
+      <c r="H604" s="6"/>
+      <c r="I604" s="6"/>
       <c r="J604" s="6"/>
-      <c r="K604" s="5"/>
+      <c r="K604" s="7">
+        <v>61000.0</v>
+      </c>
       <c r="L604" s="5"/>
       <c r="M604" s="6"/>
       <c r="N604" s="6"/>
@@ -26368,22 +26374,26 @@
         <v>76.0</v>
       </c>
       <c r="D605" s="4">
-        <v>50000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E605" s="4">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
       <c r="F605" s="4">
-        <v>100.0</v>
+        <v>400000.0</v>
       </c>
       <c r="G605" s="4">
-        <v>100000.0</v>
+        <v>50.0</v>
       </c>
       <c r="H605" s="4">
-        <v>46000.0</v>
-      </c>
-      <c r="I605" s="6"/>
-      <c r="J605" s="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="I605" s="4">
+        <v>1000000.0</v>
+      </c>
+      <c r="J605" s="4">
+        <v>21000.0</v>
+      </c>
       <c r="K605" s="5"/>
       <c r="L605" s="5"/>
       <c r="M605" s="6"/>
@@ -26407,30 +26417,32 @@
         <v>2.0</v>
       </c>
       <c r="B606" s="3">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C606" s="3">
         <v>76.0</v>
       </c>
       <c r="D606" s="4">
-        <v>25000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="E606" s="4">
-        <v>5000.0</v>
+        <v>200.0</v>
       </c>
       <c r="F606" s="4">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="G606" s="4">
-        <v>88000.0</v>
-      </c>
-      <c r="H606" s="6"/>
-      <c r="I606" s="6"/>
+        <v>1000.0</v>
+      </c>
+      <c r="H606" s="4">
+        <v>200000.0</v>
+      </c>
+      <c r="I606" s="4">
+        <v>17000.0</v>
+      </c>
       <c r="J606" s="6"/>
       <c r="K606" s="5"/>
-      <c r="L606" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="L606" s="5"/>
       <c r="M606" s="6"/>
       <c r="N606" s="6"/>
       <c r="O606" s="6"/>
@@ -26452,22 +26464,26 @@
         <v>2.0</v>
       </c>
       <c r="B607" s="3">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="C607" s="3">
         <v>76.0</v>
       </c>
       <c r="D607" s="4">
-        <v>750.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E607" s="4">
-        <v>750000.0</v>
+        <v>25.0</v>
       </c>
       <c r="F607" s="4">
-        <v>71000.0</v>
-      </c>
-      <c r="G607" s="6"/>
-      <c r="H607" s="6"/>
+        <v>100.0</v>
+      </c>
+      <c r="G607" s="4">
+        <v>100000.0</v>
+      </c>
+      <c r="H607" s="4">
+        <v>46000.0</v>
+      </c>
       <c r="I607" s="6"/>
       <c r="J607" s="6"/>
       <c r="K607" s="5"/>
@@ -26499,18 +26515,24 @@
         <v>76.0</v>
       </c>
       <c r="D608" s="4">
-        <v>75000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E608" s="4">
-        <v>82000.0</v>
-      </c>
-      <c r="F608" s="6"/>
-      <c r="G608" s="6"/>
+        <v>5000.0</v>
+      </c>
+      <c r="F608" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="G608" s="4">
+        <v>88000.0</v>
+      </c>
       <c r="H608" s="6"/>
       <c r="I608" s="6"/>
       <c r="J608" s="6"/>
       <c r="K608" s="5"/>
-      <c r="L608" s="5"/>
+      <c r="L608" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M608" s="6"/>
       <c r="N608" s="6"/>
       <c r="O608" s="6"/>
@@ -26538,12 +26560,14 @@
         <v>76.0</v>
       </c>
       <c r="D609" s="4">
-        <v>300.0</v>
+        <v>750.0</v>
       </c>
       <c r="E609" s="4">
-        <v>119000.0</v>
-      </c>
-      <c r="F609" s="6"/>
+        <v>750000.0</v>
+      </c>
+      <c r="F609" s="4">
+        <v>71000.0</v>
+      </c>
       <c r="G609" s="6"/>
       <c r="H609" s="6"/>
       <c r="I609" s="6"/>
@@ -26577,19 +26601,17 @@
         <v>76.0</v>
       </c>
       <c r="D610" s="4">
-        <v>75.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E610" s="4">
-        <v>151000.0</v>
+        <v>82000.0</v>
       </c>
       <c r="F610" s="6"/>
       <c r="G610" s="6"/>
       <c r="H610" s="6"/>
       <c r="I610" s="6"/>
       <c r="J610" s="6"/>
-      <c r="K610" s="7">
-        <v>151000.0</v>
-      </c>
+      <c r="K610" s="5"/>
       <c r="L610" s="5"/>
       <c r="M610" s="6"/>
       <c r="N610" s="6"/>
@@ -26615,29 +26637,19 @@
         <v>29.0</v>
       </c>
       <c r="C611" s="3">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="D611" s="4">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="E611" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="F611" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="G611" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="H611" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="I611" s="4">
-        <v>300000.0</v>
-      </c>
-      <c r="J611" s="4">
-        <v>18000.0</v>
-      </c>
+        <v>119000.0</v>
+      </c>
+      <c r="F611" s="6"/>
+      <c r="G611" s="6"/>
+      <c r="H611" s="6"/>
+      <c r="I611" s="6"/>
+      <c r="J611" s="6"/>
       <c r="K611" s="5"/>
       <c r="L611" s="5"/>
       <c r="M611" s="6"/>
@@ -26664,28 +26676,22 @@
         <v>29.0</v>
       </c>
       <c r="C612" s="3">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="D612" s="4">
-        <v>75000.0</v>
+        <v>75.0</v>
       </c>
       <c r="E612" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F612" s="4">
-        <v>5000.0</v>
-      </c>
-      <c r="G612" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="H612" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="I612" s="4">
-        <v>40000.0</v>
-      </c>
+        <v>151000.0</v>
+      </c>
+      <c r="F612" s="6"/>
+      <c r="G612" s="6"/>
+      <c r="H612" s="6"/>
+      <c r="I612" s="6"/>
       <c r="J612" s="6"/>
-      <c r="K612" s="5"/>
+      <c r="K612" s="7">
+        <v>151000.0</v>
+      </c>
       <c r="L612" s="5"/>
       <c r="M612" s="6"/>
       <c r="N612" s="6"/>
@@ -26714,22 +26720,26 @@
         <v>77.0</v>
       </c>
       <c r="D613" s="4">
-        <v>100000.0</v>
+        <v>1.0</v>
       </c>
       <c r="E613" s="4">
-        <v>500000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F613" s="4">
-        <v>200000.0</v>
+        <v>5.0</v>
       </c>
       <c r="G613" s="4">
-        <v>1000000.0</v>
+        <v>200.0</v>
       </c>
       <c r="H613" s="4">
-        <v>24000.0</v>
-      </c>
-      <c r="I613" s="6"/>
-      <c r="J613" s="6"/>
+        <v>500.0</v>
+      </c>
+      <c r="I613" s="4">
+        <v>300000.0</v>
+      </c>
+      <c r="J613" s="4">
+        <v>18000.0</v>
+      </c>
       <c r="K613" s="5"/>
       <c r="L613" s="5"/>
       <c r="M613" s="6"/>
@@ -26753,36 +26763,32 @@
         <v>2.0</v>
       </c>
       <c r="B614" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="C614" s="9">
-        <v>78.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="C614" s="3">
+        <v>77.0</v>
       </c>
       <c r="D614" s="4">
-        <v>1000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E614" s="4">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="F614" s="4">
-        <v>5.0</v>
+        <v>5000.0</v>
       </c>
       <c r="G614" s="4">
-        <v>75000.0</v>
+        <v>0.01</v>
       </c>
       <c r="H614" s="4">
-        <v>5000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="I614" s="4">
-        <v>200000.0</v>
-      </c>
-      <c r="J614" s="4">
-        <v>25000.0</v>
-      </c>
+        <v>40000.0</v>
+      </c>
+      <c r="J614" s="6"/>
       <c r="K614" s="5"/>
-      <c r="L614" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="L614" s="5"/>
       <c r="M614" s="6"/>
       <c r="N614" s="6"/>
       <c r="O614" s="6"/>
@@ -26804,29 +26810,27 @@
         <v>2.0</v>
       </c>
       <c r="B615" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="C615" s="9">
-        <v>78.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="C615" s="3">
+        <v>77.0</v>
       </c>
       <c r="D615" s="4">
-        <v>10.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E615" s="4">
-        <v>500.0</v>
+        <v>500000.0</v>
       </c>
       <c r="F615" s="4">
-        <v>400.0</v>
+        <v>200000.0</v>
       </c>
       <c r="G615" s="4">
-        <v>0.01</v>
+        <v>1000000.0</v>
       </c>
       <c r="H615" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="I615" s="4">
-        <v>61000.0</v>
-      </c>
+        <v>24000.0</v>
+      </c>
+      <c r="I615" s="6"/>
       <c r="J615" s="6"/>
       <c r="K615" s="5"/>
       <c r="L615" s="5"/>
@@ -26853,28 +26857,34 @@
       <c r="B616" s="3">
         <v>30.0</v>
       </c>
-      <c r="C616" s="9">
+      <c r="C616" s="10">
         <v>78.0</v>
       </c>
       <c r="D616" s="4">
-        <v>100000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E616" s="4">
-        <v>300.0</v>
+        <v>75.0</v>
       </c>
       <c r="F616" s="4">
-        <v>750.0</v>
+        <v>5.0</v>
       </c>
       <c r="G616" s="4">
-        <v>100.0</v>
+        <v>75000.0</v>
       </c>
       <c r="H616" s="4">
-        <v>169000.0</v>
-      </c>
-      <c r="I616" s="6"/>
-      <c r="J616" s="6"/>
+        <v>5000.0</v>
+      </c>
+      <c r="I616" s="4">
+        <v>200000.0</v>
+      </c>
+      <c r="J616" s="4">
+        <v>25000.0</v>
+      </c>
       <c r="K616" s="5"/>
-      <c r="L616" s="5"/>
+      <c r="L616" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M616" s="6"/>
       <c r="N616" s="6"/>
       <c r="O616" s="6"/>
@@ -26898,23 +26908,27 @@
       <c r="B617" s="3">
         <v>30.0</v>
       </c>
-      <c r="C617" s="9">
+      <c r="C617" s="10">
         <v>78.0</v>
       </c>
       <c r="D617" s="4">
-        <v>25000.0</v>
+        <v>10.0</v>
       </c>
       <c r="E617" s="4">
-        <v>25.0</v>
+        <v>500.0</v>
       </c>
       <c r="F617" s="4">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="G617" s="4">
-        <v>292000.0</v>
-      </c>
-      <c r="H617" s="6"/>
-      <c r="I617" s="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="H617" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="I617" s="4">
+        <v>61000.0</v>
+      </c>
       <c r="J617" s="6"/>
       <c r="K617" s="5"/>
       <c r="L617" s="5"/>
@@ -26941,20 +26955,24 @@
       <c r="B618" s="3">
         <v>30.0</v>
       </c>
-      <c r="C618" s="9">
+      <c r="C618" s="10">
         <v>78.0</v>
       </c>
       <c r="D618" s="4">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E618" s="4">
-        <v>300000.0</v>
+        <v>300.0</v>
       </c>
       <c r="F618" s="4">
-        <v>411000.0</v>
-      </c>
-      <c r="G618" s="6"/>
-      <c r="H618" s="6"/>
+        <v>750.0</v>
+      </c>
+      <c r="G618" s="4">
+        <v>100.0</v>
+      </c>
+      <c r="H618" s="4">
+        <v>169000.0</v>
+      </c>
       <c r="I618" s="6"/>
       <c r="J618" s="6"/>
       <c r="K618" s="5"/>
@@ -26982,17 +27000,21 @@
       <c r="B619" s="3">
         <v>30.0</v>
       </c>
-      <c r="C619" s="9">
+      <c r="C619" s="10">
         <v>78.0</v>
       </c>
       <c r="D619" s="4">
-        <v>750000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="E619" s="4">
-        <v>347000.0</v>
-      </c>
-      <c r="F619" s="6"/>
-      <c r="G619" s="6"/>
+        <v>25.0</v>
+      </c>
+      <c r="F619" s="4">
+        <v>200.0</v>
+      </c>
+      <c r="G619" s="4">
+        <v>292000.0</v>
+      </c>
       <c r="H619" s="6"/>
       <c r="I619" s="6"/>
       <c r="J619" s="6"/>
@@ -27021,16 +27043,18 @@
       <c r="B620" s="3">
         <v>30.0</v>
       </c>
-      <c r="C620" s="9">
+      <c r="C620" s="10">
         <v>78.0</v>
       </c>
       <c r="D620" s="4">
-        <v>400000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E620" s="4">
-        <v>377000.0</v>
-      </c>
-      <c r="F620" s="6"/>
+        <v>300000.0</v>
+      </c>
+      <c r="F620" s="4">
+        <v>411000.0</v>
+      </c>
       <c r="G620" s="6"/>
       <c r="H620" s="6"/>
       <c r="I620" s="6"/>
@@ -27060,23 +27084,21 @@
       <c r="B621" s="3">
         <v>30.0</v>
       </c>
-      <c r="C621" s="9">
+      <c r="C621" s="10">
         <v>78.0</v>
       </c>
       <c r="D621" s="4">
-        <v>500000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="E621" s="4">
-        <v>313000.0</v>
+        <v>347000.0</v>
       </c>
       <c r="F621" s="6"/>
       <c r="G621" s="6"/>
       <c r="H621" s="6"/>
       <c r="I621" s="6"/>
       <c r="J621" s="6"/>
-      <c r="K621" s="7">
-        <v>313000.0</v>
-      </c>
+      <c r="K621" s="5"/>
       <c r="L621" s="5"/>
       <c r="M621" s="6"/>
       <c r="N621" s="6"/>
@@ -27099,32 +27121,22 @@
         <v>2.0</v>
       </c>
       <c r="B622" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="C622" s="9">
-        <v>79.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="C622" s="10">
+        <v>78.0</v>
       </c>
       <c r="D622" s="4">
-        <v>50.0</v>
+        <v>400000.0</v>
       </c>
       <c r="E622" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="F622" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="G622" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="H622" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="I622" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="J622" s="4">
-        <v>22000.0</v>
-      </c>
+        <v>377000.0</v>
+      </c>
+      <c r="F622" s="6"/>
+      <c r="G622" s="6"/>
+      <c r="H622" s="6"/>
+      <c r="I622" s="6"/>
+      <c r="J622" s="6"/>
       <c r="K622" s="5"/>
       <c r="L622" s="5"/>
       <c r="M622" s="6"/>
@@ -27148,31 +27160,25 @@
         <v>2.0</v>
       </c>
       <c r="B623" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="C623" s="9">
-        <v>79.0</v>
+        <v>30.0</v>
+      </c>
+      <c r="C623" s="10">
+        <v>78.0</v>
       </c>
       <c r="D623" s="4">
-        <v>1000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E623" s="4">
-        <v>1000000.0</v>
-      </c>
-      <c r="F623" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G623" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="H623" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="I623" s="4">
-        <v>37000.0</v>
-      </c>
+        <v>313000.0</v>
+      </c>
+      <c r="F623" s="6"/>
+      <c r="G623" s="6"/>
+      <c r="H623" s="6"/>
+      <c r="I623" s="6"/>
       <c r="J623" s="6"/>
-      <c r="K623" s="5"/>
+      <c r="K623" s="7">
+        <v>313000.0</v>
+      </c>
       <c r="L623" s="5"/>
       <c r="M623" s="6"/>
       <c r="N623" s="6"/>
@@ -27197,26 +27203,30 @@
       <c r="B624" s="3">
         <v>31.0</v>
       </c>
-      <c r="C624" s="9">
+      <c r="C624" s="10">
         <v>79.0</v>
       </c>
       <c r="D624" s="4">
-        <v>5000.0</v>
+        <v>50.0</v>
       </c>
       <c r="E624" s="4">
-        <v>300000.0</v>
+        <v>5.0</v>
       </c>
       <c r="F624" s="4">
-        <v>75.0</v>
+        <v>500.0</v>
       </c>
       <c r="G624" s="4">
-        <v>25000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="H624" s="4">
-        <v>45000.0</v>
-      </c>
-      <c r="I624" s="6"/>
-      <c r="J624" s="6"/>
+        <v>50000.0</v>
+      </c>
+      <c r="I624" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="J624" s="4">
+        <v>22000.0</v>
+      </c>
       <c r="K624" s="5"/>
       <c r="L624" s="5"/>
       <c r="M624" s="6"/>
@@ -27242,23 +27252,27 @@
       <c r="B625" s="3">
         <v>31.0</v>
       </c>
-      <c r="C625" s="9">
+      <c r="C625" s="10">
         <v>79.0</v>
       </c>
       <c r="D625" s="4">
-        <v>100000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E625" s="4">
-        <v>200.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="F625" s="4">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="G625" s="4">
-        <v>71000.0</v>
-      </c>
-      <c r="H625" s="6"/>
-      <c r="I625" s="6"/>
+        <v>25.0</v>
+      </c>
+      <c r="H625" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="I625" s="4">
+        <v>37000.0</v>
+      </c>
       <c r="J625" s="6"/>
       <c r="K625" s="5"/>
       <c r="L625" s="5"/>
@@ -27285,20 +27299,24 @@
       <c r="B626" s="3">
         <v>31.0</v>
       </c>
-      <c r="C626" s="9">
+      <c r="C626" s="10">
         <v>79.0</v>
       </c>
       <c r="D626" s="4">
-        <v>75000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E626" s="4">
-        <v>0.01</v>
+        <v>300000.0</v>
       </c>
       <c r="F626" s="4">
-        <v>115000.0</v>
-      </c>
-      <c r="G626" s="6"/>
-      <c r="H626" s="6"/>
+        <v>75.0</v>
+      </c>
+      <c r="G626" s="4">
+        <v>25000.0</v>
+      </c>
+      <c r="H626" s="4">
+        <v>45000.0</v>
+      </c>
       <c r="I626" s="6"/>
       <c r="J626" s="6"/>
       <c r="K626" s="5"/>
@@ -27326,17 +27344,21 @@
       <c r="B627" s="3">
         <v>31.0</v>
       </c>
-      <c r="C627" s="9">
+      <c r="C627" s="10">
         <v>79.0</v>
       </c>
       <c r="D627" s="4">
-        <v>300.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E627" s="4">
-        <v>149000.0</v>
-      </c>
-      <c r="F627" s="6"/>
-      <c r="G627" s="6"/>
+        <v>200.0</v>
+      </c>
+      <c r="F627" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="G627" s="4">
+        <v>71000.0</v>
+      </c>
       <c r="H627" s="6"/>
       <c r="I627" s="6"/>
       <c r="J627" s="6"/>
@@ -27365,16 +27387,18 @@
       <c r="B628" s="3">
         <v>31.0</v>
       </c>
-      <c r="C628" s="9">
+      <c r="C628" s="10">
         <v>79.0</v>
       </c>
       <c r="D628" s="4">
-        <v>750.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E628" s="4">
-        <v>264000.0</v>
-      </c>
-      <c r="F628" s="6"/>
+        <v>0.01</v>
+      </c>
+      <c r="F628" s="4">
+        <v>115000.0</v>
+      </c>
       <c r="G628" s="6"/>
       <c r="H628" s="6"/>
       <c r="I628" s="6"/>
@@ -27404,14 +27428,14 @@
       <c r="B629" s="3">
         <v>31.0</v>
       </c>
-      <c r="C629" s="9">
+      <c r="C629" s="10">
         <v>79.0</v>
       </c>
       <c r="D629" s="4">
-        <v>400000.0</v>
+        <v>300.0</v>
       </c>
       <c r="E629" s="4">
-        <v>201000.0</v>
+        <v>149000.0</v>
       </c>
       <c r="F629" s="6"/>
       <c r="G629" s="6"/>
@@ -27443,23 +27467,21 @@
       <c r="B630" s="3">
         <v>31.0</v>
       </c>
-      <c r="C630" s="9">
+      <c r="C630" s="10">
         <v>79.0</v>
       </c>
       <c r="D630" s="4">
-        <v>100.0</v>
+        <v>750.0</v>
       </c>
       <c r="E630" s="4">
-        <v>352000.0</v>
-      </c>
-      <c r="F630" s="4"/>
+        <v>264000.0</v>
+      </c>
+      <c r="F630" s="6"/>
       <c r="G630" s="6"/>
       <c r="H630" s="6"/>
       <c r="I630" s="6"/>
       <c r="J630" s="6"/>
-      <c r="K630" s="7">
-        <v>264000.0</v>
-      </c>
+      <c r="K630" s="5"/>
       <c r="L630" s="5"/>
       <c r="M630" s="6"/>
       <c r="N630" s="6"/>
@@ -27482,39 +27504,25 @@
         <v>2.0</v>
       </c>
       <c r="B631" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="C631" s="3">
-        <v>68.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="C631" s="10">
+        <v>79.0</v>
       </c>
       <c r="D631" s="4">
-        <v>50.0</v>
+        <v>400000.0</v>
       </c>
       <c r="E631" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="F631" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="G631" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="H631" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="I631" s="4">
-        <v>75000.0</v>
-      </c>
-      <c r="J631" s="4">
-        <v>20000.0</v>
-      </c>
+        <v>201000.0</v>
+      </c>
+      <c r="F631" s="6"/>
+      <c r="G631" s="6"/>
+      <c r="H631" s="6"/>
+      <c r="I631" s="6"/>
+      <c r="J631" s="6"/>
       <c r="K631" s="5"/>
-      <c r="L631" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M631" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="L631" s="5"/>
+      <c r="M631" s="6"/>
       <c r="N631" s="6"/>
       <c r="O631" s="6"/>
       <c r="P631" s="6"/>
@@ -27535,31 +27543,25 @@
         <v>2.0</v>
       </c>
       <c r="B632" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="C632" s="3">
-        <v>68.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="C632" s="10">
+        <v>79.0</v>
       </c>
       <c r="D632" s="4">
-        <v>1000000.0</v>
+        <v>100.0</v>
       </c>
       <c r="E632" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="F632" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="G632" s="4">
-        <v>5000.0</v>
-      </c>
-      <c r="H632" s="4">
-        <v>300000.0</v>
-      </c>
-      <c r="I632" s="4">
-        <v>43000.0</v>
-      </c>
+        <v>352000.0</v>
+      </c>
+      <c r="F632" s="4"/>
+      <c r="G632" s="6"/>
+      <c r="H632" s="6"/>
+      <c r="I632" s="6"/>
       <c r="J632" s="6"/>
-      <c r="K632" s="5"/>
+      <c r="K632" s="7">
+        <v>264000.0</v>
+      </c>
       <c r="L632" s="5"/>
       <c r="M632" s="6"/>
       <c r="N632" s="6"/>
@@ -27582,37 +27584,39 @@
         <v>2.0</v>
       </c>
       <c r="B633" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="C633" s="9">
-        <v>80.0</v>
+        <v>32.0</v>
+      </c>
+      <c r="C633" s="3">
+        <v>68.0</v>
       </c>
       <c r="D633" s="4">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
       <c r="E633" s="4">
-        <v>5.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F633" s="4">
-        <v>400.0</v>
+        <v>200.0</v>
       </c>
       <c r="G633" s="4">
-        <v>75.0</v>
+        <v>500.0</v>
       </c>
       <c r="H633" s="4">
-        <v>300000.0</v>
+        <v>300.0</v>
       </c>
       <c r="I633" s="4">
-        <v>5000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="J633" s="4">
-        <v>26000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="K633" s="5"/>
       <c r="L633" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M633" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="M633" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="N633" s="6"/>
       <c r="O633" s="6"/>
       <c r="P633" s="6"/>
@@ -27633,28 +27637,28 @@
         <v>2.0</v>
       </c>
       <c r="B634" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="C634" s="9">
-        <v>80.0</v>
+        <v>32.0</v>
+      </c>
+      <c r="C634" s="3">
+        <v>68.0</v>
       </c>
       <c r="D634" s="4">
-        <v>750.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E634" s="4">
-        <v>500.0</v>
+        <v>75.0</v>
       </c>
       <c r="F634" s="4">
-        <v>200.0</v>
+        <v>400.0</v>
       </c>
       <c r="G634" s="4">
-        <v>100000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="H634" s="4">
-        <v>10000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="I634" s="4">
-        <v>66000.0</v>
+        <v>43000.0</v>
       </c>
       <c r="J634" s="6"/>
       <c r="K634" s="5"/>
@@ -27682,28 +27686,34 @@
       <c r="B635" s="3">
         <v>33.0</v>
       </c>
-      <c r="C635" s="9">
+      <c r="C635" s="10">
         <v>80.0</v>
       </c>
       <c r="D635" s="4">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="E635" s="4">
-        <v>50000.0</v>
+        <v>5.0</v>
       </c>
       <c r="F635" s="4">
-        <v>25000.0</v>
+        <v>400.0</v>
       </c>
       <c r="G635" s="4">
-        <v>1.0</v>
+        <v>75.0</v>
       </c>
       <c r="H635" s="4">
-        <v>119000.0</v>
-      </c>
-      <c r="I635" s="6"/>
-      <c r="J635" s="6"/>
+        <v>300000.0</v>
+      </c>
+      <c r="I635" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="J635" s="4">
+        <v>26000.0</v>
+      </c>
       <c r="K635" s="5"/>
-      <c r="L635" s="5"/>
+      <c r="L635" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="M635" s="6"/>
       <c r="N635" s="6"/>
       <c r="O635" s="6"/>
@@ -27727,23 +27737,27 @@
       <c r="B636" s="3">
         <v>33.0</v>
       </c>
-      <c r="C636" s="9">
+      <c r="C636" s="10">
         <v>80.0</v>
       </c>
       <c r="D636" s="4">
-        <v>400000.0</v>
+        <v>750.0</v>
       </c>
       <c r="E636" s="4">
-        <v>1000.0</v>
+        <v>500.0</v>
       </c>
       <c r="F636" s="4">
-        <v>0.01</v>
+        <v>200.0</v>
       </c>
       <c r="G636" s="4">
-        <v>218000.0</v>
-      </c>
-      <c r="H636" s="6"/>
-      <c r="I636" s="6"/>
+        <v>100000.0</v>
+      </c>
+      <c r="H636" s="4">
+        <v>10000.0</v>
+      </c>
+      <c r="I636" s="4">
+        <v>66000.0</v>
+      </c>
       <c r="J636" s="6"/>
       <c r="K636" s="5"/>
       <c r="L636" s="5"/>
@@ -27770,20 +27784,24 @@
       <c r="B637" s="3">
         <v>33.0</v>
       </c>
-      <c r="C637" s="9">
+      <c r="C637" s="10">
         <v>80.0</v>
       </c>
       <c r="D637" s="4">
-        <v>200000.0</v>
+        <v>50.0</v>
       </c>
       <c r="E637" s="4">
-        <v>1000000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="F637" s="4">
-        <v>152000.0</v>
-      </c>
-      <c r="G637" s="6"/>
-      <c r="H637" s="6"/>
+        <v>25000.0</v>
+      </c>
+      <c r="G637" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H637" s="4">
+        <v>119000.0</v>
+      </c>
       <c r="I637" s="6"/>
       <c r="J637" s="6"/>
       <c r="K637" s="5"/>
@@ -27811,17 +27829,21 @@
       <c r="B638" s="3">
         <v>33.0</v>
       </c>
-      <c r="C638" s="9">
+      <c r="C638" s="10">
         <v>80.0</v>
       </c>
       <c r="D638" s="4">
-        <v>750000.0</v>
+        <v>400000.0</v>
       </c>
       <c r="E638" s="4">
-        <v>73000.0</v>
-      </c>
-      <c r="F638" s="6"/>
-      <c r="G638" s="6"/>
+        <v>1000.0</v>
+      </c>
+      <c r="F638" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G638" s="4">
+        <v>218000.0</v>
+      </c>
       <c r="H638" s="6"/>
       <c r="I638" s="6"/>
       <c r="J638" s="6"/>
@@ -27850,16 +27872,18 @@
       <c r="B639" s="3">
         <v>33.0</v>
       </c>
-      <c r="C639" s="9">
+      <c r="C639" s="10">
         <v>80.0</v>
       </c>
       <c r="D639" s="4">
-        <v>75000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E639" s="4">
-        <v>85000.0</v>
-      </c>
-      <c r="F639" s="6"/>
+        <v>1000000.0</v>
+      </c>
+      <c r="F639" s="4">
+        <v>152000.0</v>
+      </c>
       <c r="G639" s="6"/>
       <c r="H639" s="6"/>
       <c r="I639" s="6"/>
@@ -27889,14 +27913,14 @@
       <c r="B640" s="3">
         <v>33.0</v>
       </c>
-      <c r="C640" s="9">
+      <c r="C640" s="10">
         <v>80.0</v>
       </c>
       <c r="D640" s="4">
-        <v>300.0</v>
+        <v>750000.0</v>
       </c>
       <c r="E640" s="4">
-        <v>147000.0</v>
+        <v>73000.0</v>
       </c>
       <c r="F640" s="6"/>
       <c r="G640" s="6"/>
@@ -27928,23 +27952,21 @@
       <c r="B641" s="3">
         <v>33.0</v>
       </c>
-      <c r="C641" s="9">
+      <c r="C641" s="10">
         <v>80.0</v>
       </c>
       <c r="D641" s="4">
-        <v>500000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E641" s="4">
-        <v>50.0</v>
+        <v>85000.0</v>
       </c>
       <c r="F641" s="6"/>
       <c r="G641" s="6"/>
       <c r="H641" s="6"/>
       <c r="I641" s="6"/>
       <c r="J641" s="6"/>
-      <c r="K641" s="7">
-        <v>10.0</v>
-      </c>
+      <c r="K641" s="5"/>
       <c r="L641" s="5"/>
       <c r="M641" s="6"/>
       <c r="N641" s="6"/>
@@ -27967,34 +27989,24 @@
         <v>2.0</v>
       </c>
       <c r="B642" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="C642" s="9">
-        <v>81.0</v>
+        <v>33.0</v>
+      </c>
+      <c r="C642" s="10">
+        <v>80.0</v>
       </c>
       <c r="D642" s="4">
-        <v>1.0</v>
+        <v>300.0</v>
       </c>
       <c r="E642" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="F642" s="4">
-        <v>500000.0</v>
-      </c>
-      <c r="G642" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H642" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="I642" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="J642" s="4">
-        <v>27000.0</v>
-      </c>
+        <v>147000.0</v>
+      </c>
+      <c r="F642" s="6"/>
+      <c r="G642" s="6"/>
+      <c r="H642" s="6"/>
+      <c r="I642" s="6"/>
+      <c r="J642" s="6"/>
       <c r="K642" s="5"/>
-      <c r="L642" s="7"/>
+      <c r="L642" s="5"/>
       <c r="M642" s="6"/>
       <c r="N642" s="6"/>
       <c r="O642" s="6"/>
@@ -28016,31 +28028,25 @@
         <v>2.0</v>
       </c>
       <c r="B643" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="C643" s="9">
-        <v>81.0</v>
+        <v>33.0</v>
+      </c>
+      <c r="C643" s="10">
+        <v>80.0</v>
       </c>
       <c r="D643" s="4">
-        <v>75.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E643" s="4">
-        <v>750.0</v>
-      </c>
-      <c r="F643" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="G643" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="H643" s="4">
-        <v>5000.0</v>
-      </c>
-      <c r="I643" s="4">
-        <v>71000.0</v>
-      </c>
+        <v>50.0</v>
+      </c>
+      <c r="F643" s="6"/>
+      <c r="G643" s="6"/>
+      <c r="H643" s="6"/>
+      <c r="I643" s="6"/>
       <c r="J643" s="6"/>
-      <c r="K643" s="5"/>
+      <c r="K643" s="7">
+        <v>10.0</v>
+      </c>
       <c r="L643" s="5"/>
       <c r="M643" s="6"/>
       <c r="N643" s="6"/>
@@ -28065,28 +28071,32 @@
       <c r="B644" s="3">
         <v>34.0</v>
       </c>
-      <c r="C644" s="9">
+      <c r="C644" s="10">
         <v>81.0</v>
       </c>
       <c r="D644" s="4">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="E644" s="4">
-        <v>25.0</v>
+        <v>300.0</v>
       </c>
       <c r="F644" s="4">
-        <v>75000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="G644" s="4">
-        <v>750000.0</v>
+        <v>10.0</v>
       </c>
       <c r="H644" s="4">
-        <v>111000.0</v>
-      </c>
-      <c r="I644" s="6"/>
-      <c r="J644" s="6"/>
+        <v>200.0</v>
+      </c>
+      <c r="I644" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="J644" s="4">
+        <v>27000.0</v>
+      </c>
       <c r="K644" s="5"/>
-      <c r="L644" s="5"/>
+      <c r="L644" s="7"/>
       <c r="M644" s="6"/>
       <c r="N644" s="6"/>
       <c r="O644" s="6"/>
@@ -28110,23 +28120,27 @@
       <c r="B645" s="3">
         <v>34.0</v>
       </c>
-      <c r="C645" s="9">
+      <c r="C645" s="10">
         <v>81.0</v>
       </c>
       <c r="D645" s="4">
-        <v>100000.0</v>
+        <v>75.0</v>
       </c>
       <c r="E645" s="4">
-        <v>25000.0</v>
+        <v>750.0</v>
       </c>
       <c r="F645" s="4">
-        <v>5.0</v>
+        <v>0.01</v>
       </c>
       <c r="G645" s="4">
-        <v>198000.0</v>
-      </c>
-      <c r="H645" s="6"/>
-      <c r="I645" s="6"/>
+        <v>100.0</v>
+      </c>
+      <c r="H645" s="4">
+        <v>5000.0</v>
+      </c>
+      <c r="I645" s="4">
+        <v>71000.0</v>
+      </c>
       <c r="J645" s="6"/>
       <c r="K645" s="5"/>
       <c r="L645" s="5"/>
@@ -28153,20 +28167,24 @@
       <c r="B646" s="3">
         <v>34.0</v>
       </c>
-      <c r="C646" s="9">
+      <c r="C646" s="10">
         <v>81.0</v>
       </c>
       <c r="D646" s="4">
-        <v>1000000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="E646" s="4">
-        <v>200000.0</v>
+        <v>25.0</v>
       </c>
       <c r="F646" s="4">
         <v>75000.0</v>
       </c>
-      <c r="G646" s="6"/>
-      <c r="H646" s="6"/>
+      <c r="G646" s="4">
+        <v>750000.0</v>
+      </c>
+      <c r="H646" s="4">
+        <v>111000.0</v>
+      </c>
       <c r="I646" s="6"/>
       <c r="J646" s="6"/>
       <c r="K646" s="5"/>
@@ -28194,17 +28212,21 @@
       <c r="B647" s="3">
         <v>34.0</v>
       </c>
-      <c r="C647" s="9">
+      <c r="C647" s="10">
         <v>81.0</v>
       </c>
       <c r="D647" s="4">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E647" s="4">
-        <v>106000.0</v>
-      </c>
-      <c r="F647" s="6"/>
-      <c r="G647" s="6"/>
+        <v>25000.0</v>
+      </c>
+      <c r="F647" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="G647" s="4">
+        <v>198000.0</v>
+      </c>
       <c r="H647" s="6"/>
       <c r="I647" s="6"/>
       <c r="J647" s="6"/>
@@ -28233,16 +28255,18 @@
       <c r="B648" s="3">
         <v>34.0</v>
       </c>
-      <c r="C648" s="9">
+      <c r="C648" s="10">
         <v>81.0</v>
       </c>
       <c r="D648" s="4">
-        <v>400000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="E648" s="4">
-        <v>85000.0</v>
-      </c>
-      <c r="F648" s="6"/>
+        <v>200000.0</v>
+      </c>
+      <c r="F648" s="4">
+        <v>75000.0</v>
+      </c>
       <c r="G648" s="6"/>
       <c r="H648" s="6"/>
       <c r="I648" s="6"/>
@@ -28272,14 +28296,14 @@
       <c r="B649" s="3">
         <v>34.0</v>
       </c>
-      <c r="C649" s="9">
+      <c r="C649" s="10">
         <v>81.0</v>
       </c>
       <c r="D649" s="4">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="E649" s="4">
-        <v>85000.0</v>
+        <v>106000.0</v>
       </c>
       <c r="F649" s="6"/>
       <c r="G649" s="6"/>
@@ -28311,23 +28335,21 @@
       <c r="B650" s="3">
         <v>34.0</v>
       </c>
-      <c r="C650" s="9">
+      <c r="C650" s="10">
         <v>81.0</v>
       </c>
       <c r="D650" s="4">
-        <v>500.0</v>
+        <v>400000.0</v>
       </c>
       <c r="E650" s="4">
-        <v>140000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="F650" s="6"/>
       <c r="G650" s="6"/>
       <c r="H650" s="6"/>
       <c r="I650" s="6"/>
       <c r="J650" s="6"/>
-      <c r="K650" s="7">
-        <v>85000.0</v>
-      </c>
+      <c r="K650" s="5"/>
       <c r="L650" s="5"/>
       <c r="M650" s="6"/>
       <c r="N650" s="6"/>
@@ -28350,32 +28372,22 @@
         <v>2.0</v>
       </c>
       <c r="B651" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="C651" s="9">
-        <v>82.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="C651" s="10">
+        <v>81.0</v>
       </c>
       <c r="D651" s="4">
-        <v>400.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E651" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="F651" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="G651" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="H651" s="4">
-        <v>10000.0</v>
-      </c>
-      <c r="I651" s="4">
-        <v>50000.0</v>
-      </c>
-      <c r="J651" s="4">
-        <v>17000.0</v>
-      </c>
+        <v>85000.0</v>
+      </c>
+      <c r="F651" s="6"/>
+      <c r="G651" s="6"/>
+      <c r="H651" s="6"/>
+      <c r="I651" s="6"/>
+      <c r="J651" s="6"/>
       <c r="K651" s="5"/>
       <c r="L651" s="5"/>
       <c r="M651" s="6"/>
@@ -28399,31 +28411,25 @@
         <v>2.0</v>
       </c>
       <c r="B652" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="C652" s="9">
-        <v>82.0</v>
+        <v>34.0</v>
+      </c>
+      <c r="C652" s="10">
+        <v>81.0</v>
       </c>
       <c r="D652" s="4">
-        <v>500000.0</v>
+        <v>500.0</v>
       </c>
       <c r="E652" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="F652" s="4">
-        <v>100000.0</v>
-      </c>
-      <c r="G652" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="H652" s="4">
-        <v>75.0</v>
-      </c>
-      <c r="I652" s="4">
-        <v>25000.0</v>
-      </c>
+        <v>140000.0</v>
+      </c>
+      <c r="F652" s="6"/>
+      <c r="G652" s="6"/>
+      <c r="H652" s="6"/>
+      <c r="I652" s="6"/>
       <c r="J652" s="6"/>
-      <c r="K652" s="5"/>
+      <c r="K652" s="7">
+        <v>85000.0</v>
+      </c>
       <c r="L652" s="5"/>
       <c r="M652" s="6"/>
       <c r="N652" s="6"/>
@@ -28448,26 +28454,30 @@
       <c r="B653" s="3">
         <v>35.0</v>
       </c>
-      <c r="C653" s="9">
+      <c r="C653" s="10">
         <v>82.0</v>
       </c>
       <c r="D653" s="4">
-        <v>200000.0</v>
+        <v>400.0</v>
       </c>
       <c r="E653" s="4">
-        <v>1.0</v>
+        <v>100.0</v>
       </c>
       <c r="F653" s="4">
-        <v>1000000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="G653" s="4">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="H653" s="4">
-        <v>15000.0</v>
-      </c>
-      <c r="I653" s="6"/>
-      <c r="J653" s="6"/>
+        <v>10000.0</v>
+      </c>
+      <c r="I653" s="4">
+        <v>50000.0</v>
+      </c>
+      <c r="J653" s="4">
+        <v>17000.0</v>
+      </c>
       <c r="K653" s="5"/>
       <c r="L653" s="5"/>
       <c r="M653" s="6"/>
@@ -28493,23 +28503,27 @@
       <c r="B654" s="3">
         <v>35.0</v>
       </c>
-      <c r="C654" s="9">
+      <c r="C654" s="10">
         <v>82.0</v>
       </c>
       <c r="D654" s="4">
-        <v>300000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="E654" s="4">
-        <v>750.0</v>
+        <v>200.0</v>
       </c>
       <c r="F654" s="4">
-        <v>50.0</v>
+        <v>100000.0</v>
       </c>
       <c r="G654" s="4">
-        <v>31000.0</v>
-      </c>
-      <c r="H654" s="6"/>
-      <c r="I654" s="6"/>
+        <v>1000.0</v>
+      </c>
+      <c r="H654" s="4">
+        <v>75.0</v>
+      </c>
+      <c r="I654" s="4">
+        <v>25000.0</v>
+      </c>
       <c r="J654" s="6"/>
       <c r="K654" s="5"/>
       <c r="L654" s="5"/>
@@ -28536,26 +28550,28 @@
       <c r="B655" s="3">
         <v>35.0</v>
       </c>
-      <c r="C655" s="9">
+      <c r="C655" s="10">
         <v>82.0</v>
       </c>
       <c r="D655" s="4">
-        <v>75000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E655" s="4">
-        <v>25000.0</v>
+        <v>1.0</v>
       </c>
       <c r="F655" s="4">
-        <v>43000.0</v>
-      </c>
-      <c r="G655" s="6"/>
-      <c r="H655" s="6"/>
+        <v>1000000.0</v>
+      </c>
+      <c r="G655" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="H655" s="4">
+        <v>15000.0</v>
+      </c>
       <c r="I655" s="6"/>
       <c r="J655" s="6"/>
       <c r="K655" s="5"/>
-      <c r="L655" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="L655" s="5"/>
       <c r="M655" s="6"/>
       <c r="N655" s="6"/>
       <c r="O655" s="6"/>
@@ -28579,17 +28595,21 @@
       <c r="B656" s="3">
         <v>35.0</v>
       </c>
-      <c r="C656" s="9">
+      <c r="C656" s="10">
         <v>82.0</v>
       </c>
       <c r="D656" s="4">
-        <v>0.01</v>
+        <v>300000.0</v>
       </c>
       <c r="E656" s="4">
-        <v>54000.0</v>
-      </c>
-      <c r="F656" s="6"/>
-      <c r="G656" s="6"/>
+        <v>750.0</v>
+      </c>
+      <c r="F656" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="G656" s="4">
+        <v>31000.0</v>
+      </c>
       <c r="H656" s="6"/>
       <c r="I656" s="6"/>
       <c r="J656" s="6"/>
@@ -28618,22 +28638,26 @@
       <c r="B657" s="3">
         <v>35.0</v>
       </c>
-      <c r="C657" s="9">
+      <c r="C657" s="10">
         <v>82.0</v>
       </c>
       <c r="D657" s="4">
-        <v>5000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E657" s="4">
-        <v>75000.0</v>
-      </c>
-      <c r="F657" s="6"/>
+        <v>25000.0</v>
+      </c>
+      <c r="F657" s="4">
+        <v>43000.0</v>
+      </c>
       <c r="G657" s="6"/>
       <c r="H657" s="6"/>
       <c r="I657" s="6"/>
       <c r="J657" s="6"/>
       <c r="K657" s="5"/>
-      <c r="L657" s="5"/>
+      <c r="L657" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="M657" s="6"/>
       <c r="N657" s="6"/>
       <c r="O657" s="6"/>
@@ -28657,14 +28681,14 @@
       <c r="B658" s="3">
         <v>35.0</v>
       </c>
-      <c r="C658" s="9">
+      <c r="C658" s="10">
         <v>82.0</v>
       </c>
       <c r="D658" s="4">
-        <v>25.0</v>
+        <v>0.01</v>
       </c>
       <c r="E658" s="4">
-        <v>136000.0</v>
+        <v>54000.0</v>
       </c>
       <c r="F658" s="6"/>
       <c r="G658" s="6"/>
@@ -28696,23 +28720,21 @@
       <c r="B659" s="3">
         <v>35.0</v>
       </c>
-      <c r="C659" s="9">
+      <c r="C659" s="10">
         <v>82.0</v>
       </c>
       <c r="D659" s="4">
-        <v>300.0</v>
+        <v>5000.0</v>
       </c>
       <c r="E659" s="4">
-        <v>201000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="F659" s="6"/>
       <c r="G659" s="6"/>
       <c r="H659" s="6"/>
       <c r="I659" s="6"/>
       <c r="J659" s="6"/>
-      <c r="K659" s="7">
-        <v>136000.0</v>
-      </c>
+      <c r="K659" s="5"/>
       <c r="L659" s="5"/>
       <c r="M659" s="6"/>
       <c r="N659" s="6"/>
@@ -28737,30 +28759,20 @@
       <c r="B660" s="3">
         <v>35.0</v>
       </c>
-      <c r="C660" s="9">
-        <v>83.0</v>
+      <c r="C660" s="10">
+        <v>82.0</v>
       </c>
       <c r="D660" s="4">
-        <v>1000000.0</v>
+        <v>25.0</v>
       </c>
       <c r="E660" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="F660" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="G660" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="H660" s="4">
-        <v>100000.0</v>
-      </c>
-      <c r="I660" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="J660" s="4">
-        <v>20000.0</v>
-      </c>
+        <v>136000.0</v>
+      </c>
+      <c r="F660" s="6"/>
+      <c r="G660" s="6"/>
+      <c r="H660" s="6"/>
+      <c r="I660" s="6"/>
+      <c r="J660" s="6"/>
       <c r="K660" s="5"/>
       <c r="L660" s="5"/>
       <c r="M660" s="6"/>
@@ -28786,29 +28798,23 @@
       <c r="B661" s="3">
         <v>35.0</v>
       </c>
-      <c r="C661" s="9">
-        <v>83.0</v>
+      <c r="C661" s="10">
+        <v>82.0</v>
       </c>
       <c r="D661" s="4">
-        <v>400000.0</v>
+        <v>300.0</v>
       </c>
       <c r="E661" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="F661" s="4">
-        <v>25000.0</v>
-      </c>
-      <c r="G661" s="4">
-        <v>750000.0</v>
-      </c>
-      <c r="H661" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="I661" s="4">
-        <v>17000.0</v>
-      </c>
+        <v>201000.0</v>
+      </c>
+      <c r="F661" s="6"/>
+      <c r="G661" s="6"/>
+      <c r="H661" s="6"/>
+      <c r="I661" s="6"/>
       <c r="J661" s="6"/>
-      <c r="K661" s="5"/>
+      <c r="K661" s="7">
+        <v>136000.0</v>
+      </c>
       <c r="L661" s="5"/>
       <c r="M661" s="6"/>
       <c r="N661" s="6"/>
@@ -28833,26 +28839,30 @@
       <c r="B662" s="3">
         <v>35.0</v>
       </c>
-      <c r="C662" s="9">
+      <c r="C662" s="10">
         <v>83.0</v>
       </c>
-      <c r="D662" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="E662" s="10">
-        <v>200000.0</v>
-      </c>
-      <c r="F662" s="10">
-        <v>100.0</v>
-      </c>
-      <c r="G662" s="10">
-        <v>300000.0</v>
-      </c>
-      <c r="H662" s="10">
-        <v>22000.0</v>
-      </c>
-      <c r="I662" s="6"/>
-      <c r="J662" s="6"/>
+      <c r="D662" s="4">
+        <v>1000000.0</v>
+      </c>
+      <c r="E662" s="4">
+        <v>500.0</v>
+      </c>
+      <c r="F662" s="4">
+        <v>400.0</v>
+      </c>
+      <c r="G662" s="4">
+        <v>50.0</v>
+      </c>
+      <c r="H662" s="4">
+        <v>100000.0</v>
+      </c>
+      <c r="I662" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="J662" s="4">
+        <v>20000.0</v>
+      </c>
       <c r="K662" s="5"/>
       <c r="L662" s="5"/>
       <c r="M662" s="6"/>
@@ -28878,23 +28888,27 @@
       <c r="B663" s="3">
         <v>35.0</v>
       </c>
-      <c r="C663" s="9">
+      <c r="C663" s="10">
         <v>83.0</v>
       </c>
-      <c r="D663" s="10">
-        <v>75000.0</v>
-      </c>
-      <c r="E663" s="10">
-        <v>75.0</v>
-      </c>
-      <c r="F663" s="10">
-        <v>200.0</v>
-      </c>
-      <c r="G663" s="10">
-        <v>39000.0</v>
-      </c>
-      <c r="H663" s="6"/>
-      <c r="I663" s="6"/>
+      <c r="D663" s="4">
+        <v>400000.0</v>
+      </c>
+      <c r="E663" s="4">
+        <v>300.0</v>
+      </c>
+      <c r="F663" s="4">
+        <v>25000.0</v>
+      </c>
+      <c r="G663" s="4">
+        <v>750000.0</v>
+      </c>
+      <c r="H663" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I663" s="4">
+        <v>17000.0</v>
+      </c>
       <c r="J663" s="6"/>
       <c r="K663" s="5"/>
       <c r="L663" s="5"/>
@@ -28921,20 +28935,24 @@
       <c r="B664" s="3">
         <v>35.0</v>
       </c>
-      <c r="C664" s="9">
+      <c r="C664" s="10">
         <v>83.0</v>
       </c>
-      <c r="D664" s="10">
-        <v>1000.0</v>
-      </c>
-      <c r="E664" s="10">
-        <v>500000.0</v>
-      </c>
-      <c r="F664" s="10">
-        <v>8000.0</v>
-      </c>
-      <c r="G664" s="6"/>
-      <c r="H664" s="6"/>
+      <c r="D664" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="E664" s="8">
+        <v>200000.0</v>
+      </c>
+      <c r="F664" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="G664" s="8">
+        <v>300000.0</v>
+      </c>
+      <c r="H664" s="8">
+        <v>22000.0</v>
+      </c>
       <c r="I664" s="6"/>
       <c r="J664" s="6"/>
       <c r="K664" s="5"/>
@@ -28962,17 +28980,21 @@
       <c r="B665" s="3">
         <v>35.0</v>
       </c>
-      <c r="C665" s="9">
+      <c r="C665" s="10">
         <v>83.0</v>
       </c>
-      <c r="D665" s="10">
-        <v>750.0</v>
-      </c>
-      <c r="E665" s="10">
-        <v>12000.0</v>
-      </c>
-      <c r="F665" s="6"/>
-      <c r="G665" s="6"/>
+      <c r="D665" s="8">
+        <v>75000.0</v>
+      </c>
+      <c r="E665" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="F665" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="G665" s="8">
+        <v>39000.0</v>
+      </c>
       <c r="H665" s="6"/>
       <c r="I665" s="6"/>
       <c r="J665" s="6"/>
@@ -29001,16 +29023,18 @@
       <c r="B666" s="3">
         <v>35.0</v>
       </c>
-      <c r="C666" s="9">
+      <c r="C666" s="10">
         <v>83.0</v>
       </c>
-      <c r="D666" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="E666" s="10">
-        <v>15000.0</v>
-      </c>
-      <c r="F666" s="6"/>
+      <c r="D666" s="8">
+        <v>1000.0</v>
+      </c>
+      <c r="E666" s="8">
+        <v>500000.0</v>
+      </c>
+      <c r="F666" s="8">
+        <v>8000.0</v>
+      </c>
       <c r="G666" s="6"/>
       <c r="H666" s="6"/>
       <c r="I666" s="6"/>
@@ -29040,14 +29064,14 @@
       <c r="B667" s="3">
         <v>35.0</v>
       </c>
-      <c r="C667" s="9">
+      <c r="C667" s="10">
         <v>83.0</v>
       </c>
-      <c r="D667" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="E667" s="10">
-        <v>24000.0</v>
+      <c r="D667" s="8">
+        <v>750.0</v>
+      </c>
+      <c r="E667" s="8">
+        <v>12000.0</v>
       </c>
       <c r="F667" s="6"/>
       <c r="G667" s="6"/>
@@ -29079,23 +29103,21 @@
       <c r="B668" s="3">
         <v>35.0</v>
       </c>
-      <c r="C668" s="9">
+      <c r="C668" s="10">
         <v>83.0</v>
       </c>
-      <c r="D668" s="10">
-        <v>5000.0</v>
-      </c>
-      <c r="E668" s="10">
-        <v>31000.0</v>
+      <c r="D668" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="E668" s="8">
+        <v>15000.0</v>
       </c>
       <c r="F668" s="6"/>
       <c r="G668" s="6"/>
       <c r="H668" s="6"/>
       <c r="I668" s="6"/>
       <c r="J668" s="6"/>
-      <c r="K668" s="8">
-        <v>24000.0</v>
-      </c>
+      <c r="K668" s="5"/>
       <c r="L668" s="5"/>
       <c r="M668" s="6"/>
       <c r="N668" s="6"/>
@@ -29114,8 +29136,21 @@
       <c r="AA668" s="6"/>
     </row>
     <row r="669">
-      <c r="D669" s="6"/>
-      <c r="E669" s="6"/>
+      <c r="A669" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B669" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="C669" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="D669" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E669" s="8">
+        <v>24000.0</v>
+      </c>
       <c r="F669" s="6"/>
       <c r="G669" s="6"/>
       <c r="H669" s="6"/>
@@ -29140,14 +29175,29 @@
       <c r="AA669" s="6"/>
     </row>
     <row r="670">
-      <c r="D670" s="6"/>
-      <c r="E670" s="6"/>
+      <c r="A670" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="B670" s="3">
+        <v>35.0</v>
+      </c>
+      <c r="C670" s="10">
+        <v>83.0</v>
+      </c>
+      <c r="D670" s="8">
+        <v>5000.0</v>
+      </c>
+      <c r="E670" s="8">
+        <v>31000.0</v>
+      </c>
       <c r="F670" s="6"/>
       <c r="G670" s="6"/>
       <c r="H670" s="6"/>
       <c r="I670" s="6"/>
       <c r="J670" s="6"/>
-      <c r="K670" s="5"/>
+      <c r="K670" s="9">
+        <v>24000.0</v>
+      </c>
       <c r="L670" s="5"/>
       <c r="M670" s="6"/>
       <c r="N670" s="6"/>
@@ -37693,6 +37743,58 @@
       <c r="Z998" s="6"/>
       <c r="AA998" s="6"/>
     </row>
+    <row r="999">
+      <c r="D999" s="6"/>
+      <c r="E999" s="6"/>
+      <c r="F999" s="6"/>
+      <c r="G999" s="6"/>
+      <c r="H999" s="6"/>
+      <c r="I999" s="6"/>
+      <c r="J999" s="6"/>
+      <c r="K999" s="5"/>
+      <c r="L999" s="5"/>
+      <c r="M999" s="6"/>
+      <c r="N999" s="6"/>
+      <c r="O999" s="6"/>
+      <c r="P999" s="6"/>
+      <c r="Q999" s="6"/>
+      <c r="R999" s="6"/>
+      <c r="S999" s="6"/>
+      <c r="T999" s="6"/>
+      <c r="U999" s="6"/>
+      <c r="V999" s="6"/>
+      <c r="W999" s="6"/>
+      <c r="X999" s="6"/>
+      <c r="Y999" s="6"/>
+      <c r="Z999" s="6"/>
+      <c r="AA999" s="6"/>
+    </row>
+    <row r="1000">
+      <c r="D1000" s="6"/>
+      <c r="E1000" s="6"/>
+      <c r="F1000" s="6"/>
+      <c r="G1000" s="6"/>
+      <c r="H1000" s="6"/>
+      <c r="I1000" s="6"/>
+      <c r="J1000" s="6"/>
+      <c r="K1000" s="5"/>
+      <c r="L1000" s="5"/>
+      <c r="M1000" s="6"/>
+      <c r="N1000" s="6"/>
+      <c r="O1000" s="6"/>
+      <c r="P1000" s="6"/>
+      <c r="Q1000" s="6"/>
+      <c r="R1000" s="6"/>
+      <c r="S1000" s="6"/>
+      <c r="T1000" s="6"/>
+      <c r="U1000" s="6"/>
+      <c r="V1000" s="6"/>
+      <c r="W1000" s="6"/>
+      <c r="X1000" s="6"/>
+      <c r="Y1000" s="6"/>
+      <c r="Z1000" s="6"/>
+      <c r="AA1000" s="6"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
